--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -575,7 +575,7 @@
         <v>45665</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45915.71048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45581</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45203</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>44867</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45665</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45460</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>45988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>44673</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44658.61030092592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44392.70586805556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45572</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45534</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45912.64041666667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45237</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45932.46107638889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45933.36122685186</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45938.55289351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44589</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>46030</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44936</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44938</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45323</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45793</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>45397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44582.59763888889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44509.66182870371</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44512.50644675926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44385.41387731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44512.51515046296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44735</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44787.59047453704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44508.64581018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44347.64283564815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44266.47996527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44280</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44328.4728125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44581</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44258</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44386.48466435185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44418</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44488</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44523.42877314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44719.48916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44580.31994212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44552</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44886.48966435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44260</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44448.58052083333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44523.43002314815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44750</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44552</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44581</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44776</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44392</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44392</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44392</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44824</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44748.390625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44735.57664351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44456</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44466</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44301.5815625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44258</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44745</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44264</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44494</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44362</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44385.44270833334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44787</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44385</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44512.50206018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44412</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44392</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44389.54732638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44403</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44378</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44423</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44270</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44602.61702546296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44491.55930555556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44389.50047453704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44624.63793981481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44543.47636574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44505.63077546296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44299</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44238</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44358</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44676</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44448.5831712963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44629</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44377.61174768519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44440</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44446</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44438</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44719.48399305555</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44780.62675925926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44780.62833333333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44511</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44846</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44840.47571759259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44840.48149305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44449</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44711.68866898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44762</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>44861</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>44780.62754629629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>44302.39375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>44400</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>44607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>44607</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>44602.52010416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>44868.4477662037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>44629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44434.40748842592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44347.63983796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44615</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44649</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44389.64984953704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44417.52393518519</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44546</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44550</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44759</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44538</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44785</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44806</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44526</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44439</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44421</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44616.59842592593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44424</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44719.4793287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44644</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44247</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44404.53424768519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>44378</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44658.58828703704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44787.57554398148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44826</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44683.5315625</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44679</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44258</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44343</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44762.81606481481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44389</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44389</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44820.35306712963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44505</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44627.6694212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44784.38228009259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44294</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44829.64430555556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44572.6740625</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>45740</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>45740</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44322</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45430</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>45425</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44546</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>44825.35525462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45617</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>45278</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>45712</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44362</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45306</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45572</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>45050</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45050</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>45432</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>45621</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45768</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45266.55052083333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45720.92059027778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45253</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45425</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45747.31423611111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45266</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45279</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44745.53890046296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45171.36037037037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44419.53694444444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45113.64356481482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44512</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44606</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45092.34506944445</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44830</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45278</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45278.42649305556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45392</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45639.50815972222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45639.51513888889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44709.56806712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45575</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44235</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45631</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45173</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45238.80616898148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45005.39711805555</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45747</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45709.55030092593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45146</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45372</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45231.56270833333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45736</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44823.3628587963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45301</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45769</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45617</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45558.45792824074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44419</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44852.82453703704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45723.89909722222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45454</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>45107</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>45331.32953703704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45226</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>45747.30980324074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45162</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45699</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44720.395625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44763.62467592592</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45729</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45595</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>44911</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>45798.38451388889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45398</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45374</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>45374</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>45798.47412037037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45676</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>45799</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44538</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45798.47082175926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45775</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45506.50138888889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>45800</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45740.4903587963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>45222.47865740741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>45804.6821875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45264</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>45805</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>45807.57009259259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>45807.57471064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>45807.57306712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45811</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45888.66510416667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>45615</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45888.65850694444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18107,7 +18107,7 @@
         <v>45189.46061342592</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>45811</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45888</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>45516.6842824074</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>45520.48883101852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45888.3778587963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>45699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>45811</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45888.37590277778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>45582</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>45811.43605324074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45503</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>45358</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>45630</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>45834</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44872</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45113.63711805556</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45771</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>45596</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>45607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45589</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>45848</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45891</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>45890</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>45890</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45813</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>45575.63483796296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>45848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>45419</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44823</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>45623</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44945</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>45763</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>45895.4925</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>45895.49542824074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45894</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45646</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>45761</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>45711.44690972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>45893</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>45893</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45893</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45893</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>45646</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>45895</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45817</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44993.43474537037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44924.74262731482</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44490.6284837963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>45896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>45818</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45082</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45898</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45901</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45740</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44284.54657407408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45757.40585648148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>45646</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45888</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45881</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>45877</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>45771</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>45138.63635416667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>45881</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45881</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>45881</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>45418.65100694444</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>45903</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44853.38101851852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>45902.3049537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>45902</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>45820</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44635.57199074074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45902.94583333333</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45902.38271990741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>45905</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44900</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45723.43067129629</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45904</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45904.49318287037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45904.49505787037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45866.36243055556</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45825.4028587963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45908.3643287037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45251</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45901</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45471</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45471</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45411</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>44858</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45146</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45403</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45147.67074074074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45253.61355324074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45825.39515046297</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45910.75832175926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45912.63494212963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45912</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45915.49105324074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44896</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45915.38284722222</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45913.63548611111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45631.44657407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45826.54501157408</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45716</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45915.38431712963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45912.63859953704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44334</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44608</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44609.47098379629</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45912</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45827.65681712963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45667</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45667</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44587</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45744</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45826.48171296297</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44564.44407407408</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45831</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45831.24026620371</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45831.24456018519</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45831.24898148148</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45831</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>44734</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45918.28855324074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45832.46424768519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44629.61861111111</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44993</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45922</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45922</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45922</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45922</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45832</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45212.56989583333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45608</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>44509.46195601852</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45832</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45013.61559027778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45055</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45924.61424768518</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45924.79767361111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45925</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45835.54383101852</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45099.48193287037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45929.72997685185</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>44943</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45012</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45156.36695601852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45929.74762731481</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45931</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45838</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45931.68141203704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>44550</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45932.94513888889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>45931.94607638889</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>45837</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>45769</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>45932.5705787037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45932.52427083333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45728</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45932.56517361111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>45933.34677083333</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45932.45870370371</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>45932.72905092593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45931</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45841</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45733.61358796297</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45936.46237268519</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>45582.63302083333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45387.48815972222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45639.5108912037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45937.66600694445</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45729</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44846</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>45842</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>45842</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>45938</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>45148.58145833333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>45937</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>45937</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>45113.64834490741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45113.65050925926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45845.71586805556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44879</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45943</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44985</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>45453</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>45208</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>45358</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>45845</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>45303.81282407408</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44994.44269675926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>45832</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45944.58974537037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45845.57018518518</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45808</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45278</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45527.32226851852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45944.56200231481</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45847.43850694445</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45944.56563657407</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45944.58201388889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45944.62978009259</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45356</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45673</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45343.45314814815</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45945</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45847.61231481482</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45847</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45189.4577662037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45847</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45847</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45847</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45334</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45946.44969907407</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45245</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>45711.45023148148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45841</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45168.65633101852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>45949.81171296296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45855.40596064815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45239</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45239</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45951.4497337963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44936.57364583333</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45950.4672337963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45089.91476851852</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45391</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45866</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45723.466875</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45621.39435185185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45301</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45880</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>45576</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45204</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45203</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45871.59560185186</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>44659</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32603,7 +32603,7 @@
         <v>45012</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>45278.43013888889</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44916.65094907407</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44943.50019675926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>44671</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>44607</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45358</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>45874</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>45874</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>45874</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>45874</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>45874</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>45874</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>45282</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45191</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45310.58418981481</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45746</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>45959</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45537</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45961.43761574074</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45961</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45497</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>45961.44432870371</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>45961.43993055556</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45961.44732638889</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44550</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45278</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>45769.44701388889</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>45961</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>45880</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>45881.61653935185</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45387</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34437,7 +34437,7 @@
         <v>45881</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34494,7 +34494,7 @@
         <v>45881</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34551,7 +34551,7 @@
         <v>45342</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34608,7 +34608,7 @@
         <v>44580.87892361111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34665,7 +34665,7 @@
         <v>45880</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34722,7 +34722,7 @@
         <v>45881.88849537037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34779,7 +34779,7 @@
         <v>44564</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45707</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>45817</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         <v>45877</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>45237.68157407407</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44392</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35121,7 +35121,7 @@
         <v>45677</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35178,7 +35178,7 @@
         <v>45555</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35235,7 +35235,7 @@
         <v>45966</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>45966.6183912037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>45966</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>45665</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35463,7 +35463,7 @@
         <v>45249.71587962963</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35520,7 +35520,7 @@
         <v>45883.66013888889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>45523</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>45971</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44663</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>45547</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>45471.6508912037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45324.4834837963</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45005</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>45975.34126157407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44606</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45975</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>45735</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>45975</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44550</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>45527</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>45572.53379629629</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>45977</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>45975</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>45719</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>45295.4290625</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>45330</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44319</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>45771</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>45980.35592592593</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>45982.56765046297</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>45176</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>45367.71616898148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>45714</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>45714</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>45983</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>45982.59368055555</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>44988.77804398148</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>45603.61142361111</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>45133.75327546296</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>45733</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>45439.89835648148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>45987.59451388889</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>45743</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37691,7 +37691,7 @@
         <v>45719</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37748,7 +37748,7 @@
         <v>45261</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37805,7 +37805,7 @@
         <v>45988.59798611111</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>45988.55174768518</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44777.69274305556</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>45988</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>45989</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>46030.54390046297</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>45989</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>45428</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>45988</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45988.59486111111</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>45989</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45989</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>46030.55771990741</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>45356</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44287</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>45988.59108796297</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>45394</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>46030.5664699074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>45988</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>45756.41225694444</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>45756</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>45727</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>45146.50280092593</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44678.68165509259</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>45603.70509259259</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>45992</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>45993.60181712963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45419</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45986</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45993.44180555556</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>46034.57228009259</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>44881.5821412037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>46036.56621527778</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>45995.48490740741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>45337</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>45258.29427083334</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>45012.5621875</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44468.44650462963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>45995.63555555556</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40038,7 +40038,7 @@
         <v>46037.53836805555</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45611</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44509</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40209,7 +40209,7 @@
         <v>45996</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40266,7 +40266,7 @@
         <v>46038.58667824074</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40323,7 +40323,7 @@
         <v>46041.48625</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40380,7 +40380,7 @@
         <v>46041.55094907407</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>45999.55011574074</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>45707.45273148148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>45525.82263888889</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>45719</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>46037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40727,7 +40727,7 @@
         <v>46041.48872685185</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40784,7 +40784,7 @@
         <v>45425.41623842593</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>46043</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>45603.62186342593</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45164.43252314815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>45756</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>45006.67759259259</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>45477</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>45988</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>45988</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>45639</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>45639.60733796296</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>45450</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41473,7 +41473,7 @@
         <v>45506</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41535,7 +41535,7 @@
         <v>45988</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41592,7 +41592,7 @@
         <v>44813</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41649,7 +41649,7 @@
         <v>45988</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41706,7 +41706,7 @@
         <v>44910.37921296297</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>45728.48168981481</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>45107</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44960.33927083333</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>46045.60822916667</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>45609</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>45457.49069444444</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>46045.60420138889</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>45775</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>46046</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>45522</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45832</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>45356</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>45352</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>46006.31548611111</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>46006.31755787037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>46046</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>46006</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>46048.50357638889</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>46009</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>45433.62677083333</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>46008.41583333333</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>45044</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>46009</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>45222.48622685186</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>45706</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>46008.41267361111</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>45428</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>45548</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>45439.91932870371</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>45313.45986111111</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>46010</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>46055.5643287037</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>45021.66313657408</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>46055.6519675926</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>45271.42207175926</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>46055.64796296296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44509</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>45617</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44378</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>45266</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>45581</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>45534.44462962963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45156</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>46059.59567129629</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>46045</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>46045</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44395,7 +44395,7 @@
         <v>46016</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>44868</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>45733.59439814815</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45147.80305555555</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>45191.59171296296</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45740</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>44552.4565162037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>46058.49802083334</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45062.46313657407</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>44463.44508101852</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>46059.34946759259</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>44392</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>45758.55665509259</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45685</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45237</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45348</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45405.68177083333</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>44909.5743287037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45771</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45564</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45609</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45597,7 +45597,7 @@
         <v>45078</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45654,7 +45654,7 @@
         <v>44824.65680555555</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45711,7 +45711,7 @@
         <v>45378</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45768,7 +45768,7 @@
         <v>45559</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>45603</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44603.36936342593</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44501</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>45012</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>45127</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>45471</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>45720</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>45583</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>45355</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>45171.35449074074</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>45299</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44916.60686342593</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>45721</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>45631</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>45586.43513888889</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>45068</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>45534</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>45679</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>45070.33251157407</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44938.67820601852</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44745.57325231482</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44370</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>45709</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>45368</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>45454</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47255,7 +47255,7 @@
         <v>45098.48512731482</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47312,7 +47312,7 @@
         <v>45524</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>45597</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         <v>45597</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47483,7 +47483,7 @@
         <v>45616</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47545,7 +47545,7 @@
         <v>44861</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47602,7 +47602,7 @@
         <v>45617</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47659,7 +47659,7 @@
         <v>44763.60128472222</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47721,7 +47721,7 @@
         <v>45280.40775462963</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47778,7 +47778,7 @@
         <v>45278</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47835,7 +47835,7 @@
         <v>45495.46560185185</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47892,7 +47892,7 @@
         <v>45575</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>45211.58881944444</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>45211.60106481481</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>45775</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>45775.4625</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44487</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>45516</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>45516</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>45379</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>45237</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>45106</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>45223</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>45736</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>45546</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>45392</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>45537</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48814,7 +48814,7 @@
         <v>45740</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>45722.75255787037</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>45712</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48990,7 +48990,7 @@
         <v>45631.46025462963</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49047,7 +49047,7 @@
         <v>45089.90354166667</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49104,7 +49104,7 @@
         <v>44876.44770833333</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49161,7 +49161,7 @@
         <v>45457</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49218,7 +49218,7 @@
         <v>45341</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49275,7 +49275,7 @@
         <v>45383</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49332,7 +49332,7 @@
         <v>45727</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49389,7 +49389,7 @@
         <v>45303</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49446,7 +49446,7 @@
         <v>44509.60841435185</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49503,7 +49503,7 @@
         <v>45481</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49560,7 +49560,7 @@
         <v>44389.5525</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49617,7 +49617,7 @@
         <v>45547</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49674,7 +49674,7 @@
         <v>45707</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49731,7 +49731,7 @@
         <v>44450</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49788,7 +49788,7 @@
         <v>45156</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49845,7 +49845,7 @@
         <v>45527.34229166667</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>44880</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>45635</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50021,7 +50021,7 @@
         <v>45253.47288194444</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50078,7 +50078,7 @@
         <v>45233</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50135,7 +50135,7 @@
         <v>44881</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50192,7 +50192,7 @@
         <v>44886</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45180.47318287037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         <v>45474</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50363,7 +50363,7 @@
         <v>45569</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50420,7 +50420,7 @@
         <v>44980</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50477,7 +50477,7 @@
         <v>45303</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50534,7 +50534,7 @@
         <v>45358</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50591,7 +50591,7 @@
         <v>45575</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50648,7 +50648,7 @@
         <v>44952</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50705,7 +50705,7 @@
         <v>44812.56072916667</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50762,7 +50762,7 @@
         <v>45095.48106481481</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50819,7 +50819,7 @@
         <v>44488</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50876,7 +50876,7 @@
         <v>45267.67167824074</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>45542</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50990,7 +50990,7 @@
         <v>45397.38871527778</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>44758.50113425926</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51104,7 +51104,7 @@
         <v>45558</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51161,7 +51161,7 @@
         <v>45630.74324074074</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51223,7 +51223,7 @@
         <v>45704.63635416667</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>45704</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>44296</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45607</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45740.56710648148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51513,7 +51513,7 @@
         <v>45625</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51570,7 +51570,7 @@
         <v>45573.62628472222</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>44581.48815972222</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>44564</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         <v>45542</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51798,7 +51798,7 @@
         <v>45421</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51855,7 +51855,7 @@
         <v>45707.38164351852</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51912,7 +51912,7 @@
         <v>44938.66984953704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51969,7 +51969,7 @@
         <v>45567</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52026,7 +52026,7 @@
         <v>45107</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52083,7 +52083,7 @@
         <v>45527</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52140,7 +52140,7 @@
         <v>44885</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52197,7 +52197,7 @@
         <v>44523.46517361111</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52254,7 +52254,7 @@
         <v>44994</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52311,7 +52311,7 @@
         <v>45644</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52368,7 +52368,7 @@
         <v>45685</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52425,7 +52425,7 @@
         <v>45728.48884259259</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52482,7 +52482,7 @@
         <v>45106.60681712963</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52539,7 +52539,7 @@
         <v>45700</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52596,7 +52596,7 @@
         <v>44929.47711805555</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52653,7 +52653,7 @@
         <v>45426.42743055556</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52710,7 +52710,7 @@
         <v>45229.59701388889</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52767,7 +52767,7 @@
         <v>45191.49715277777</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52824,7 +52824,7 @@
         <v>45191</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52881,7 +52881,7 @@
         <v>45630</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52938,7 +52938,7 @@
         <v>44959</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52995,7 +52995,7 @@
         <v>45237</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53052,7 +53052,7 @@
         <v>45735</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         <v>44921</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53166,7 +53166,7 @@
         <v>45720</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53228,7 +53228,7 @@
         <v>45692.40827546296</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53285,7 +53285,7 @@
         <v>45692.41335648148</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53342,7 +53342,7 @@
         <v>44679</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53399,7 +53399,7 @@
         <v>45063</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53456,7 +53456,7 @@
         <v>45420</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53513,7 +53513,7 @@
         <v>44973</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53570,7 +53570,7 @@
         <v>45517.40324074074</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>45681</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53684,7 +53684,7 @@
         <v>45385.59082175926</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53741,7 +53741,7 @@
         <v>45491.48956018518</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53798,7 +53798,7 @@
         <v>45441</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53855,7 +53855,7 @@
         <v>45075</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53912,7 +53912,7 @@
         <v>44671</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53969,7 +53969,7 @@
         <v>45063</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54026,7 +54026,7 @@
         <v>45707</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54083,7 +54083,7 @@
         <v>45516</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54145,7 +54145,7 @@
         <v>45040</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54202,7 +54202,7 @@
         <v>45365</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54259,7 +54259,7 @@
         <v>45281</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54316,7 +54316,7 @@
         <v>45098.49775462963</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54373,7 +54373,7 @@
         <v>45098</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54430,7 +54430,7 @@
         <v>45386.64910879629</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54487,7 +54487,7 @@
         <v>44509</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         <v>44998.46248842592</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54606,7 +54606,7 @@
         <v>44574</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54663,7 +54663,7 @@
         <v>45361.64986111111</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54720,7 +54720,7 @@
         <v>45314</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54777,7 +54777,7 @@
         <v>44499</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54834,7 +54834,7 @@
         <v>45057</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54891,7 +54891,7 @@
         <v>44868</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54948,7 +54948,7 @@
         <v>45769</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55010,7 +55010,7 @@
         <v>45149.34829861111</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55067,7 +55067,7 @@
         <v>45273.33925925926</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55124,7 +55124,7 @@
         <v>45728</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55181,7 +55181,7 @@
         <v>44439</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55238,7 +55238,7 @@
         <v>45677.70292824074</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55295,7 +55295,7 @@
         <v>45040</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55352,7 +55352,7 @@
         <v>45393.67927083333</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55409,7 +55409,7 @@
         <v>44623</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55466,7 +55466,7 @@
         <v>45194.70186342593</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55523,7 +55523,7 @@
         <v>45672</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55580,7 +55580,7 @@
         <v>44448</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55637,7 +55637,7 @@
         <v>44489</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55694,7 +55694,7 @@
         <v>45380</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55751,7 +55751,7 @@
         <v>45779.62796296296</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55808,7 +55808,7 @@
         <v>45782</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55865,7 +55865,7 @@
         <v>45783.60231481482</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55922,7 +55922,7 @@
         <v>45369.4175</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -55979,7 +55979,7 @@
         <v>45782</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56036,7 +56036,7 @@
         <v>45427</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56093,7 +56093,7 @@
         <v>45555</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56150,7 +56150,7 @@
         <v>45785</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56207,7 +56207,7 @@
         <v>45784</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56264,7 +56264,7 @@
         <v>45681</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56321,7 +56321,7 @@
         <v>45646</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56378,7 +56378,7 @@
         <v>45736</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56435,7 +56435,7 @@
         <v>45784</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56492,7 +56492,7 @@
         <v>45789</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56554,7 +56554,7 @@
         <v>45720</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56616,7 +56616,7 @@
         <v>45789.56633101852</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56673,7 +56673,7 @@
         <v>45789</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56735,7 +56735,7 @@
         <v>44881</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56792,7 +56792,7 @@
         <v>45789</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56854,7 +56854,7 @@
         <v>45791.67365740741</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56916,7 +56916,7 @@
         <v>45790</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -56978,7 +56978,7 @@
         <v>45790</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57040,7 +57040,7 @@
         <v>45790</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57102,7 +57102,7 @@
         <v>45790</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57164,7 +57164,7 @@
         <v>45791</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57221,7 +57221,7 @@
         <v>45791.71166666667</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57283,7 +57283,7 @@
         <v>45791.3975</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57340,7 +57340,7 @@
         <v>45790</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45790</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57464,7 +57464,7 @@
         <v>45790</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57521,7 +57521,7 @@
         <v>45790</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57583,7 +57583,7 @@
         <v>45790</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         <v>45793</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57702,7 +57702,7 @@
         <v>45239</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57759,7 +57759,7 @@
         <v>45796</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57816,7 +57816,7 @@
         <v>45644</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57873,7 +57873,7 @@
         <v>45707</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57930,7 +57930,7 @@
         <v>45796</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57987,7 +57987,7 @@
         <v>45323</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58044,7 +58044,7 @@
         <v>45638</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -575,7 +575,7 @@
         <v>45665</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45915.71048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45581</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45203</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>44867</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45665</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45460</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>45988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>44673</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44658.61030092592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44392.70586805556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45572</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45534</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45912.64041666667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45237</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45932.46107638889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45933.36122685186</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45938.55289351852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45728</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44589</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>46030</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44936</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44938</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45323</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45793</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>45397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44582.59763888889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44509.66182870371</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44512.50644675926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44385.41387731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44512.51515046296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44735</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44787.59047453704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44508.64581018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44347.64283564815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44266.47996527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44280</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44328.4728125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44473</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44581</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44258</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44386.48466435185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44418</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44488</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44523.42877314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44719.48916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44580.31994212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44552</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44886.48966435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44260</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44448.58052083333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44523.43002314815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44750</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44552</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44581</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44776</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44392</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44392</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44392</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44824</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44748.390625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44735.57664351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44456</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44466</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44301.5815625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44258</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44745</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44264</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44494</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44362</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44385.44270833334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44787</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44385</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44512.50206018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44412</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44392</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44389.54732638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44403</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44378</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44423</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44270</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44602.61702546296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44491.55930555556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44389.50047453704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44624.63793981481</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44543.47636574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44505.63077546296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44299</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44238</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44358</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44676</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44448.5831712963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44629</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44377.61174768519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44440</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44446</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44438</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44719.48399305555</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44780.62675925926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44780.62833333333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44511</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44846</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44392</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44840.47571759259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44840.48149305556</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44449</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44711.68866898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44762</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>44861</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>44780.62754629629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>44302.39375</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>44400</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>44607</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>44607</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>44602.52010416667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>44868.4477662037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>44629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44434.40748842592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44347.63983796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44615</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44649</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44616</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44389.64984953704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44417.52393518519</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44546</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44550</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44759</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44538</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44785</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44806</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44526</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44439</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44334</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44421</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44616.59842592593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44424</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44719.4793287037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44644</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44247</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44404.53424768519</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>44378</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>44658.58828703704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44787.57554398148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44826</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44683.5315625</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44679</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44258</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44343</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44686</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44762.81606481481</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44389</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44389</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44698</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44820.35306712963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44505</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44627.6694212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44784.38228009259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44294</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44829.64430555556</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44572.6740625</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>45740</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>45740</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44322</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45430</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>45425</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44546</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>44825.35525462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45617</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         <v>45278</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>45712</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44362</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45306</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45572</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>45050</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45050</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>45432</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>45621</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45768</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45266.55052083333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45720.92059027778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45253</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45763</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45425</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45747.31423611111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45266</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45279</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44745.53890046296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45171.36037037037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44419.53694444444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45113.64356481482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44512</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44606</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45092.34506944445</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44830</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45278</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>45278.42649305556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45392</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45639.50815972222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45639.51513888889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44709.56806712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45575</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44235</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45631</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45173</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45238.80616898148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45005.39711805555</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45747</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45709.55030092593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45146</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15125,7 +15125,7 @@
         <v>45372</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45231.56270833333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45736</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>44823.3628587963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>45301</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45769</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45617</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>45558.45792824074</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>44419</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44852.82453703704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45723.89909722222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45454</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>45107</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>45331.32953703704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44487</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45226</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>45747.30980324074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45162</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45699</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44720.395625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>44763.62467592592</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45729</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>45595</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>44911</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>45798.38451388889</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16652,7 +16652,7 @@
         <v>45398</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>45374</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16766,7 +16766,7 @@
         <v>45374</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>45798.47412037037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>45676</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>45799</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>44538</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45798.47082175926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>45775</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45506.50138888889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>45800</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45740.4903587963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         <v>45460</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         <v>45222.47865740741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>45804.6821875</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>45264</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>45805</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44881</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>45807.57009259259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>45807.57471064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>45807.57306712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45811</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17936,7 +17936,7 @@
         <v>45888.66510416667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17993,7 +17993,7 @@
         <v>45615</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45888.65850694444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18107,7 +18107,7 @@
         <v>45189.46061342592</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>45811</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45888</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>45516.6842824074</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>45520.48883101852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>45888.3778587963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>45699</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>45811</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45888.37590277778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>45582</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>45811.43605324074</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45503</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>45358</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>45630</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>45834</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44872</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>45113.63711805556</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>45771</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>45596</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>45607</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45589</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>45848</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>45891</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>45890</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>45890</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45813</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>45575.63483796296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44819</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>45848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>45419</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44823</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>45623</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44945</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>45763</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>45895.4925</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>45895.49542824074</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>45894</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45646</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>45761</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>45711.44690972222</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>45893</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>45893</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45893</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45893</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>45646</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>45895</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45817</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44993.43474537037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44924.74262731482</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44490.6284837963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>45896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>45818</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45082</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45898</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45901</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45740</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44284.54657407408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45757.40585648148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>45646</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45888</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45880</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>45881</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>45877</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>45771</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>45138.63635416667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>45881</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>45881</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>45881</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>45418.65100694444</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>45903</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>45902</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44853.38101851852</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>45902.3049537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>45902</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>45820</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44635.57199074074</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45902.94583333333</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45902.38271990741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45659</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>45905</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>44900</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45723.43067129629</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45904</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45904.49318287037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45904.49505787037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45082</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45866.36243055556</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45825.4028587963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45908.3643287037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45251</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45901</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45471</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45471</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45411</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>44858</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45146</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45403</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45910</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45910</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45147.67074074074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45253.61355324074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45825.39515046297</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45910.75832175926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45912.63494212963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45912</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45915.49105324074</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>44896</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45915.38284722222</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>44976</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45913.63548611111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45631.44657407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45826.54501157408</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45716</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45915.38431712963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45912.63859953704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>44334</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>44608</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>44609.47098379629</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45912</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45827.65681712963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45667</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45667</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45667</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44587</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45744</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45826.48171296297</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44564.44407407408</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45831</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45831.24026620371</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45831.24456018519</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>45831.24898148148</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>45831</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>44734</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>45918.28855324074</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>45832.46424768519</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44629.61861111111</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44993</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45922</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45922</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45922</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26169,7 +26169,7 @@
         <v>45922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>45922</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>45832</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45212.56989583333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45608</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>44509.46195601852</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>45832</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45013.61559027778</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>45055</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>45924.61424768518</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>45924.79767361111</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26801,7 +26801,7 @@
         <v>45925</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26858,7 +26858,7 @@
         <v>45835.54383101852</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45099.48193287037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45929.72997685185</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>44943</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45107</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45012</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45156.36695601852</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45929.74762731481</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45931</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45838</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45931.68141203704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>44550</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45932.94513888889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>45931.94607638889</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>45837</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>45769</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>45932.5705787037</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>45932.52427083333</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45728</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45932.56517361111</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>45933.34677083333</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45932.45870370371</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>45932.72905092593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45931</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45841</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45733.61358796297</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45936.46237268519</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>45582.63302083333</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45387.48815972222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45841</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45639.5108912037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45937.66600694445</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45729</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44846</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>45842</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>45842</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>45938</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>45148.58145833333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>45937</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>45937</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>45113.64834490741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45113.65050925926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45845.71586805556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>44879</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45943</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44985</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>45453</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>45208</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>45358</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>45845</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>45303.81282407408</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44994.44269675926</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>45832</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45944.58974537037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45845.57018518518</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45808</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>44880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45278</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45527.32226851852</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45944.56200231481</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45847.43850694445</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45944.56563657407</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45944.58201388889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45944.62978009259</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45356</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45673</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45343.45314814815</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45945</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45847.61231481482</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45847</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45189.4577662037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45847</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45847</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45847</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45334</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45946.44969907407</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45245</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>45711.45023148148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45841</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45168.65633101852</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>45949.81171296296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45855.40596064815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45239</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45239</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45951.4497337963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>44936.57364583333</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45950.4672337963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45089.91476851852</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45391</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45866</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45723.466875</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45621.39435185185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45301</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45880</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>45576</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45204</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45203</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45871.59560185186</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>44659</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32603,7 +32603,7 @@
         <v>45012</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>45278.43013888889</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44916.65094907407</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>44943.50019675926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>44671</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>44607</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45358</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33007,7 +33007,7 @@
         <v>45874</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33064,7 +33064,7 @@
         <v>45874</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>45874</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>45874</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>45874</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>45874</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>45282</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45191</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45310.58418981481</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45746</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>45959</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>45537</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45961.43761574074</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45961</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45497</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>45961.44432870371</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>45961.43993055556</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45961.44732638889</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44550</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45278</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>45769.44701388889</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>45961</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>45880</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>45881.61653935185</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45387</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34437,7 +34437,7 @@
         <v>45881</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34494,7 +34494,7 @@
         <v>45881</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34551,7 +34551,7 @@
         <v>45342</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34608,7 +34608,7 @@
         <v>44580.87892361111</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34665,7 +34665,7 @@
         <v>45880</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34722,7 +34722,7 @@
         <v>45881.88849537037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34779,7 +34779,7 @@
         <v>44564</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45707</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>45817</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         <v>45877</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>45237.68157407407</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44392</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35121,7 +35121,7 @@
         <v>45677</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35178,7 +35178,7 @@
         <v>45555</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35235,7 +35235,7 @@
         <v>45966</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>45966.6183912037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>45966</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>45665</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35463,7 +35463,7 @@
         <v>45249.71587962963</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35520,7 +35520,7 @@
         <v>45883.66013888889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>45523</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>45971</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44663</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>45547</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>45471.6508912037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>45324.4834837963</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>45005</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>45975.34126157407</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44606</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>45975</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>45735</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>45975</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44550</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>45527</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>45572.53379629629</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>45977</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>45975</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>45719</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>45295.4290625</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>45330</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44319</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>45771</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>45980.35592592593</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>45982.56765046297</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>45176</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>45367.71616898148</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>45714</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>45714</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>45983</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>45982.59368055555</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>44988.77804398148</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37349,7 +37349,7 @@
         <v>45603.61142361111</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37406,7 +37406,7 @@
         <v>45133.75327546296</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37463,7 +37463,7 @@
         <v>45733</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37520,7 +37520,7 @@
         <v>45439.89835648148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37577,7 +37577,7 @@
         <v>45987.59451388889</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37634,7 +37634,7 @@
         <v>45743</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37691,7 +37691,7 @@
         <v>45719</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37748,7 +37748,7 @@
         <v>45261</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37805,7 +37805,7 @@
         <v>45988.59798611111</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37862,7 +37862,7 @@
         <v>45988.55174768518</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37919,7 +37919,7 @@
         <v>44777.69274305556</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37976,7 +37976,7 @@
         <v>45988</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38033,7 +38033,7 @@
         <v>45989</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38090,7 +38090,7 @@
         <v>46030.54390046297</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38147,7 +38147,7 @@
         <v>45989</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38204,7 +38204,7 @@
         <v>45428</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38261,7 +38261,7 @@
         <v>45988</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45988.59486111111</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>45989</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45989</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>46030.55771990741</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         <v>45356</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38608,7 +38608,7 @@
         <v>44287</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38665,7 +38665,7 @@
         <v>45988.59108796297</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38722,7 +38722,7 @@
         <v>45394</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>46030.5664699074</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>45988</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         <v>45756.41225694444</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38950,7 +38950,7 @@
         <v>45756</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>45727</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>45146.50280092593</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44678.68165509259</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>45603.70509259259</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>45992</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>45993.60181712963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45419</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45986</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45993.44180555556</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>46034.57228009259</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>44881.5821412037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>46036.56621527778</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>45995.48490740741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39753,7 +39753,7 @@
         <v>45337</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39810,7 +39810,7 @@
         <v>45258.29427083334</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39867,7 +39867,7 @@
         <v>45012.5621875</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39924,7 +39924,7 @@
         <v>44468.44650462963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>45995.63555555556</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40038,7 +40038,7 @@
         <v>46037.53836805555</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40095,7 +40095,7 @@
         <v>45611</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40152,7 +40152,7 @@
         <v>44509</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40209,7 +40209,7 @@
         <v>45996</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40266,7 +40266,7 @@
         <v>46038.58667824074</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40323,7 +40323,7 @@
         <v>46041.48625</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40380,7 +40380,7 @@
         <v>46041.55094907407</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40437,7 +40437,7 @@
         <v>45999.55011574074</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>45707.45273148148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40551,7 +40551,7 @@
         <v>45525.82263888889</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40608,7 +40608,7 @@
         <v>45719</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40665,7 +40665,7 @@
         <v>46037</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40727,7 +40727,7 @@
         <v>46041.48872685185</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40784,7 +40784,7 @@
         <v>45425.41623842593</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40841,7 +40841,7 @@
         <v>46043</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>45603.62186342593</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>45164.43252314815</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>45756</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41069,7 +41069,7 @@
         <v>45006.67759259259</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41126,7 +41126,7 @@
         <v>45477</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41183,7 +41183,7 @@
         <v>45988</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41240,7 +41240,7 @@
         <v>45988</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41297,7 +41297,7 @@
         <v>45639</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41354,7 +41354,7 @@
         <v>45639.60733796296</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41411,7 +41411,7 @@
         <v>45450</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41473,7 +41473,7 @@
         <v>45506</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41535,7 +41535,7 @@
         <v>45988</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41592,7 +41592,7 @@
         <v>44813</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41649,7 +41649,7 @@
         <v>45988</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41706,7 +41706,7 @@
         <v>44910.37921296297</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41768,7 +41768,7 @@
         <v>45728.48168981481</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41825,7 +41825,7 @@
         <v>45107</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41882,7 +41882,7 @@
         <v>44960.33927083333</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41939,7 +41939,7 @@
         <v>46045.60822916667</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41996,7 +41996,7 @@
         <v>45609</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42053,7 +42053,7 @@
         <v>45457.49069444444</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42110,7 +42110,7 @@
         <v>46045.60420138889</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42167,7 +42167,7 @@
         <v>45775</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42224,7 +42224,7 @@
         <v>46046</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42281,7 +42281,7 @@
         <v>45522</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45832</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>45356</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>45352</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>46006.31548611111</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>46006.31755787037</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>46046</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>46006</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>46048.50357638889</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>46009</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42851,7 +42851,7 @@
         <v>45433.62677083333</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42908,7 +42908,7 @@
         <v>46008.41583333333</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42965,7 +42965,7 @@
         <v>45044</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>46009</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43079,7 +43079,7 @@
         <v>45222.48622685186</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43136,7 +43136,7 @@
         <v>45706</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43193,7 +43193,7 @@
         <v>46008.41267361111</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43250,7 +43250,7 @@
         <v>45428</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43307,7 +43307,7 @@
         <v>45548</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>45439.91932870371</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43421,7 +43421,7 @@
         <v>45313.45986111111</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43478,7 +43478,7 @@
         <v>46010</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43535,7 +43535,7 @@
         <v>46055.5643287037</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43592,7 +43592,7 @@
         <v>45021.66313657408</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>46055.6519675926</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>45271.42207175926</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>46055.64796296296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43820,7 +43820,7 @@
         <v>44509</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43877,7 +43877,7 @@
         <v>45617</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43934,7 +43934,7 @@
         <v>44378</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43991,7 +43991,7 @@
         <v>45266</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>45581</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44105,7 +44105,7 @@
         <v>45534.44462962963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45156</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>46059.59567129629</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>46045</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>46045</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44395,7 +44395,7 @@
         <v>46016</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>44868</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44509,7 +44509,7 @@
         <v>45733.59439814815</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45147.80305555555</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44623,7 +44623,7 @@
         <v>45191.59171296296</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44680,7 +44680,7 @@
         <v>45740</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44742,7 +44742,7 @@
         <v>44552.4565162037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44799,7 +44799,7 @@
         <v>46058.49802083334</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44856,7 +44856,7 @@
         <v>45062.46313657407</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44913,7 +44913,7 @@
         <v>44463.44508101852</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44970,7 +44970,7 @@
         <v>46059.34946759259</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45027,7 +45027,7 @@
         <v>44392</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45084,7 +45084,7 @@
         <v>45758.55665509259</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45141,7 +45141,7 @@
         <v>45685</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>45237</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45255,7 +45255,7 @@
         <v>45348</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45312,7 +45312,7 @@
         <v>45405.68177083333</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45369,7 +45369,7 @@
         <v>44909.5743287037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         <v>45771</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45483,7 +45483,7 @@
         <v>45564</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45540,7 +45540,7 @@
         <v>45609</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45597,7 +45597,7 @@
         <v>45078</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45654,7 +45654,7 @@
         <v>44824.65680555555</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45711,7 +45711,7 @@
         <v>45378</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45768,7 +45768,7 @@
         <v>45559</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45825,7 +45825,7 @@
         <v>45603</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45882,7 +45882,7 @@
         <v>44603.36936342593</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         <v>44501</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45996,7 +45996,7 @@
         <v>45012</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46053,7 +46053,7 @@
         <v>45127</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46110,7 +46110,7 @@
         <v>45471</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46167,7 +46167,7 @@
         <v>45720</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>45583</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>45355</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>45171.35449074074</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>45299</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46452,7 +46452,7 @@
         <v>44916.60686342593</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46509,7 +46509,7 @@
         <v>45721</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46566,7 +46566,7 @@
         <v>45631</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46623,7 +46623,7 @@
         <v>45586.43513888889</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46680,7 +46680,7 @@
         <v>45068</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46737,7 +46737,7 @@
         <v>45534</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46794,7 +46794,7 @@
         <v>45679</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46851,7 +46851,7 @@
         <v>45070.33251157407</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46908,7 +46908,7 @@
         <v>44938.67820601852</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46965,7 +46965,7 @@
         <v>44745.57325231482</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47022,7 +47022,7 @@
         <v>44370</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47079,7 +47079,7 @@
         <v>45709</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>45368</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47193,7 +47193,7 @@
         <v>45454</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47255,7 +47255,7 @@
         <v>45098.48512731482</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47312,7 +47312,7 @@
         <v>45524</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>45597</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         <v>45597</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47483,7 +47483,7 @@
         <v>45616</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47545,7 +47545,7 @@
         <v>44861</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47602,7 +47602,7 @@
         <v>45617</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47659,7 +47659,7 @@
         <v>44763.60128472222</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47721,7 +47721,7 @@
         <v>45280.40775462963</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47778,7 +47778,7 @@
         <v>45278</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47835,7 +47835,7 @@
         <v>45495.46560185185</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47892,7 +47892,7 @@
         <v>45575</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47954,7 +47954,7 @@
         <v>45211.58881944444</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -48011,7 +48011,7 @@
         <v>45211.60106481481</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48068,7 +48068,7 @@
         <v>45775</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48125,7 +48125,7 @@
         <v>45775.4625</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48182,7 +48182,7 @@
         <v>44487</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48239,7 +48239,7 @@
         <v>45516</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48296,7 +48296,7 @@
         <v>45516</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48353,7 +48353,7 @@
         <v>45379</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48410,7 +48410,7 @@
         <v>45237</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48467,7 +48467,7 @@
         <v>45106</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48524,7 +48524,7 @@
         <v>45223</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48581,7 +48581,7 @@
         <v>45736</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48638,7 +48638,7 @@
         <v>45546</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48695,7 +48695,7 @@
         <v>45392</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48752,7 +48752,7 @@
         <v>45537</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48814,7 +48814,7 @@
         <v>45740</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48876,7 +48876,7 @@
         <v>45722.75255787037</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         <v>45712</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48990,7 +48990,7 @@
         <v>45631.46025462963</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49047,7 +49047,7 @@
         <v>45089.90354166667</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49104,7 +49104,7 @@
         <v>44876.44770833333</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49161,7 +49161,7 @@
         <v>45457</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49218,7 +49218,7 @@
         <v>45341</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49275,7 +49275,7 @@
         <v>45383</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49332,7 +49332,7 @@
         <v>45727</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49389,7 +49389,7 @@
         <v>45303</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49446,7 +49446,7 @@
         <v>44509.60841435185</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49503,7 +49503,7 @@
         <v>45481</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49560,7 +49560,7 @@
         <v>44389.5525</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49617,7 +49617,7 @@
         <v>45547</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49674,7 +49674,7 @@
         <v>45707</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49731,7 +49731,7 @@
         <v>44450</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49788,7 +49788,7 @@
         <v>45156</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49845,7 +49845,7 @@
         <v>45527.34229166667</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>44880</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>45635</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50021,7 +50021,7 @@
         <v>45253.47288194444</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50078,7 +50078,7 @@
         <v>45233</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50135,7 +50135,7 @@
         <v>44881</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50192,7 +50192,7 @@
         <v>44886</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50249,7 +50249,7 @@
         <v>45180.47318287037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         <v>45474</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50363,7 +50363,7 @@
         <v>45569</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50420,7 +50420,7 @@
         <v>44980</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50477,7 +50477,7 @@
         <v>45303</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50534,7 +50534,7 @@
         <v>45358</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50591,7 +50591,7 @@
         <v>45575</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50648,7 +50648,7 @@
         <v>44952</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50705,7 +50705,7 @@
         <v>44812.56072916667</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50762,7 +50762,7 @@
         <v>45095.48106481481</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50819,7 +50819,7 @@
         <v>44488</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50876,7 +50876,7 @@
         <v>45267.67167824074</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50933,7 +50933,7 @@
         <v>45542</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50990,7 +50990,7 @@
         <v>45397.38871527778</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         <v>44758.50113425926</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51104,7 +51104,7 @@
         <v>45558</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51161,7 +51161,7 @@
         <v>45630.74324074074</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51223,7 +51223,7 @@
         <v>45704.63635416667</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51280,7 +51280,7 @@
         <v>45704</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51337,7 +51337,7 @@
         <v>44296</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51394,7 +51394,7 @@
         <v>45607</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51451,7 +51451,7 @@
         <v>45740.56710648148</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51513,7 +51513,7 @@
         <v>45625</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51570,7 +51570,7 @@
         <v>45573.62628472222</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51627,7 +51627,7 @@
         <v>44581.48815972222</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51684,7 +51684,7 @@
         <v>44564</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         <v>45542</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51798,7 +51798,7 @@
         <v>45421</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51855,7 +51855,7 @@
         <v>45707.38164351852</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51912,7 +51912,7 @@
         <v>44938.66984953704</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51969,7 +51969,7 @@
         <v>45567</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52026,7 +52026,7 @@
         <v>45107</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52083,7 +52083,7 @@
         <v>45527</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52140,7 +52140,7 @@
         <v>44885</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52197,7 +52197,7 @@
         <v>44523.46517361111</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52254,7 +52254,7 @@
         <v>44994</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52311,7 +52311,7 @@
         <v>45644</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52368,7 +52368,7 @@
         <v>45685</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52425,7 +52425,7 @@
         <v>45728.48884259259</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52482,7 +52482,7 @@
         <v>45106.60681712963</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52539,7 +52539,7 @@
         <v>45700</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52596,7 +52596,7 @@
         <v>44929.47711805555</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52653,7 +52653,7 @@
         <v>45426.42743055556</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52710,7 +52710,7 @@
         <v>45229.59701388889</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52767,7 +52767,7 @@
         <v>45191.49715277777</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52824,7 +52824,7 @@
         <v>45191</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52881,7 +52881,7 @@
         <v>45630</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52938,7 +52938,7 @@
         <v>44959</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52995,7 +52995,7 @@
         <v>45237</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53052,7 +53052,7 @@
         <v>45735</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         <v>44921</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53166,7 +53166,7 @@
         <v>45720</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53228,7 +53228,7 @@
         <v>45692.40827546296</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53285,7 +53285,7 @@
         <v>45692.41335648148</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53342,7 +53342,7 @@
         <v>44679</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53399,7 +53399,7 @@
         <v>45063</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53456,7 +53456,7 @@
         <v>45420</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53513,7 +53513,7 @@
         <v>44973</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53570,7 +53570,7 @@
         <v>45517.40324074074</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53627,7 +53627,7 @@
         <v>45681</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53684,7 +53684,7 @@
         <v>45385.59082175926</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53741,7 +53741,7 @@
         <v>45491.48956018518</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53798,7 +53798,7 @@
         <v>45441</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53855,7 +53855,7 @@
         <v>45075</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53912,7 +53912,7 @@
         <v>44671</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53969,7 +53969,7 @@
         <v>45063</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54026,7 +54026,7 @@
         <v>45707</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54083,7 +54083,7 @@
         <v>45516</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54145,7 +54145,7 @@
         <v>45040</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54202,7 +54202,7 @@
         <v>45365</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54259,7 +54259,7 @@
         <v>45281</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54316,7 +54316,7 @@
         <v>45098.49775462963</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54373,7 +54373,7 @@
         <v>45098</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54430,7 +54430,7 @@
         <v>45386.64910879629</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54487,7 +54487,7 @@
         <v>44509</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         <v>44998.46248842592</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54606,7 +54606,7 @@
         <v>44574</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54663,7 +54663,7 @@
         <v>45361.64986111111</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54720,7 +54720,7 @@
         <v>45314</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54777,7 +54777,7 @@
         <v>44499</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54834,7 +54834,7 @@
         <v>45057</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54891,7 +54891,7 @@
         <v>44868</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54948,7 +54948,7 @@
         <v>45769</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -55010,7 +55010,7 @@
         <v>45149.34829861111</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55067,7 +55067,7 @@
         <v>45273.33925925926</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55124,7 +55124,7 @@
         <v>45728</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55181,7 +55181,7 @@
         <v>44439</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55238,7 +55238,7 @@
         <v>45677.70292824074</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55295,7 +55295,7 @@
         <v>45040</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55352,7 +55352,7 @@
         <v>45393.67927083333</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55409,7 +55409,7 @@
         <v>44623</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55466,7 +55466,7 @@
         <v>45194.70186342593</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55523,7 +55523,7 @@
         <v>45672</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55580,7 +55580,7 @@
         <v>44448</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55637,7 +55637,7 @@
         <v>44489</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55694,7 +55694,7 @@
         <v>45380</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55751,7 +55751,7 @@
         <v>45779.62796296296</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55808,7 +55808,7 @@
         <v>45782</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55865,7 +55865,7 @@
         <v>45783.60231481482</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55922,7 +55922,7 @@
         <v>45369.4175</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -55979,7 +55979,7 @@
         <v>45782</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56036,7 +56036,7 @@
         <v>45427</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56093,7 +56093,7 @@
         <v>45555</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56150,7 +56150,7 @@
         <v>45785</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56207,7 +56207,7 @@
         <v>45784</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56264,7 +56264,7 @@
         <v>45681</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56321,7 +56321,7 @@
         <v>45646</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56378,7 +56378,7 @@
         <v>45736</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56435,7 +56435,7 @@
         <v>45784</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56492,7 +56492,7 @@
         <v>45789</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56554,7 +56554,7 @@
         <v>45720</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56616,7 +56616,7 @@
         <v>45789.56633101852</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56673,7 +56673,7 @@
         <v>45789</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56735,7 +56735,7 @@
         <v>44881</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56792,7 +56792,7 @@
         <v>45789</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56854,7 +56854,7 @@
         <v>45791.67365740741</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56916,7 +56916,7 @@
         <v>45790</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -56978,7 +56978,7 @@
         <v>45790</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57040,7 +57040,7 @@
         <v>45790</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57102,7 +57102,7 @@
         <v>45790</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57164,7 +57164,7 @@
         <v>45791</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57221,7 +57221,7 @@
         <v>45791.71166666667</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57283,7 +57283,7 @@
         <v>45791.3975</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57340,7 +57340,7 @@
         <v>45790</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45790</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57464,7 +57464,7 @@
         <v>45790</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57521,7 +57521,7 @@
         <v>45790</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57583,7 +57583,7 @@
         <v>45790</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         <v>45793</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57702,7 +57702,7 @@
         <v>45239</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57759,7 +57759,7 @@
         <v>45796</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57816,7 +57816,7 @@
         <v>45644</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57873,7 +57873,7 @@
         <v>45707</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57930,7 +57930,7 @@
         <v>45796</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57987,7 +57987,7 @@
         <v>45323</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58044,7 +58044,7 @@
         <v>45638</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -575,7 +575,7 @@
         <v>45665</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45915.71048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45581</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45203</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>44867</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45665</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45460</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>45988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>44673</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44658.61030092592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44392.70586805556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45572</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45534</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45912.64041666667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45237</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45728</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45932.46107638889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45933.36122685186</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45938.55289351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44589</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44938</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>46030</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45323</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45793</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>45397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44512.50644675926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44512.51515046296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44629</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44787.59047453704</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44582.59763888889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44509.66182870371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44830</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44385.41387731482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44508.64581018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44347.64283564815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44266.47996527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44280</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44328.4728125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44258</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44386.48466435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44581</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44418</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44488</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44523.42877314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44719.48916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44552</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44580.31994212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44523.43002314815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44448.58052083333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44886.48966435185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44509</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44260</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44750</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44552</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44581</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44776</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44392</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44392</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44392</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44824</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44748.390625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44735.57664351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44456</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44466</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44301.5815625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44264</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44258</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44745</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44494</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44362</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44385.44270833334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44412</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44385</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44512.50206018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44787</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44392</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44389.54732638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44378</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44403</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44423</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44270</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44389.50047453704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44624.63793981481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44602.61702546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44491.55930555556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44543.47636574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44299</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44505.63077546296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44358</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44676</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44448.5831712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44440</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44446</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44377.61174768519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44719.48399305555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44438</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44780.62675925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44780.62833333333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44846</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44840.47571759259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44840.48149305556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44557</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44449</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44762</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44711.68866898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44861</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>44780.62754629629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>44302.39375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>44400</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>44607</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>44602.52010416667</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>44607</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>44868.4477662037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>44629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>44434.40748842592</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44347.63983796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44616</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44649</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44389.64984953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44550</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44417.52393518519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44538</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44759</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44819</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44785</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44806</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44526</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44421</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44424</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44616.59842592593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44719.4793287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44644</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44404.53424768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44378</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44658.58828703704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44787.57554398148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44826</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44683.5315625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44679</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44258</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44686</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44343</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44762.81606481481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44698</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44505</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44627.6694212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44820.35306712963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44389</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44389</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44784.38228009259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44829.64430555556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44294</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44572.6740625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45740</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44825.35525462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44362</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44546</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>45617</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45430</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45278</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45306</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>45712</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45572</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45050</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45050</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>45432</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45621</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>45768</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>45266.55052083333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45763</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45720.92059027778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45425</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45747.31423611111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>45266</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>45279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44745.53890046296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45253</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>44419.53694444444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45171.36037037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45113.64356481482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44512</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45278</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45278.42649305556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44606</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44830</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44709.56806712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45092.34506944445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45392</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45639.50815972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45639.51513888889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45631</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45173</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44627</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45231.56270833333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44823.3628587963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45146</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45709.55030092593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44895</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45301</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45238.80616898148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45769</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45723.89909722222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45107</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45558.45792824074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44852.82453703704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>45226</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44419</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45005.39711805555</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45454</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45331.32953703704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44487</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45699</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>45747.30980324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45729</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44720.395625</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44763.62467592592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>45162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>44911</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>45595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>45398</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>45374</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>45374</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45747</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45775</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>45676</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>45460</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>45222.47865740741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>45740.4903587963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>45506.50138888889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>45264</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>45189.46061342592</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44881</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>45372</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45736</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45516.6842824074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45699</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45589</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45817</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44819</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45711.44690972222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>45728</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45113.63711805556</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45596</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44284.54657407408</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45757.40585648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45646</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44993.43474537037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44924.74262731482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44490.6284837963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>45740</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45771</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45820</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45888.66510416667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45888.65850694444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44853.38101851852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45825.4028587963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45888</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45888.3778587963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45888.37590277778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44635.57199074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45834</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>45825.39515046297</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>45848</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45891</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45890</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45890</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>45659</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>45848</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44900</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45723.43067129629</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45826.54501157408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>45082</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45895.4925</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45895.49542824074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45827.65681712963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45826.48171296297</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45251</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45471</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45471</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45893</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45893</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45893</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45831.24026620371</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45411</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44858</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45895</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45831.24456018519</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45831.24898148148</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45831</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45146</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45403</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45147.67074074074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45253.61355324074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45832.46424768519</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45832</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44976</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45631.44657407407</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45716</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45082</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45898</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45901</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45888</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44609.47098379629</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>45835.54383101852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45880</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45881</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45877</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45667</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45667</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>44587</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>45138.63635416667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>44564.44407407408</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>45881</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>45881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>45881</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45418.65100694444</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>45903</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>45902</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>45902.3049537037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>45902</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>45902.94583333333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44734</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>45902.38271990741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>45838</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44629.61861111111</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44993</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45905</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>45904</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>45212.56989583333</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>45608</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>45904.49318287037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>45904.49505787037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44509.46195601852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>45866.36243055556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>45841</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>45908.3643287037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45901</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45013.61559027778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>45841</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>45055</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>45910</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45910</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>45842</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>45842</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>45845.71586805556</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>45099.48193287037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>45910.75832175926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>45358</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45912.63494212963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45915.49105324074</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>45915.38284722222</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44943</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45913.63548611111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45832</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         <v>45845.57018518518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>45808</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>45012</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>45156.36695601852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>45847.43850694445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>45915.38431712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>45673</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>45912.63859953704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45847.61231481482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>45847</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45847</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45847</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45847</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>45912</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45841</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>44550</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>45855.40596064815</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>45769</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>45918.28855324074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>45728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>45922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45922</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>45922</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>45733.61358796297</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>45922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>45922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>45582.63302083333</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>45642</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>45387.48815972222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>45639.5108912037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>45924.61424768518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45729</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>45924.79767361111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45866</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45925</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44846</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45929.72997685185</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45148.58145833333</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45113.64834490741</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45113.65050925926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45871.59560185186</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>44879</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45929.74762731481</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>44985</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45453</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45208</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45303.81282407408</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44994.44269675926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45931</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45874</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45931.68141203704</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45874</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45932.94513888889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45278</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45527.32226851852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45931.94607638889</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45310.58418981481</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45356</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45746</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45343.45314814815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45537</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45932.5705787037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45497</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45932.52427083333</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>45932.56517361111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45189.4577662037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44550</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>45769.44701388889</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45933.34677083333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45932.45870370371</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45334</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45245</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45932.72905092593</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45880</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45711.45023148148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45931</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45881.61653935185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45881</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45168.65633101852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45881</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45936.46237268519</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45880</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45881.88849537037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45239</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45239</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45817</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>45877</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44392</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45883.66013888889</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44936.57364583333</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>45937.66600694445</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>45547</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>45089.91476851852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>45391</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>45938</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>45937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>45937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30873,7 +30873,7 @@
         <v>45723.466875</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30930,7 +30930,7 @@
         <v>45621.39435185185</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45301</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>45576</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31158,7 +31158,7 @@
         <v>45204</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45203</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44606</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45944.58974537037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44659</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45944.56200231481</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45944.56563657407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45944.58201388889</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45012</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45278.43013888889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44916.65094907407</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44943.50019675926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45944.62978009259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45945</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>44671</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>44607</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>45358</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         <v>45282</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>45946.44969907407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32246,7 +32246,7 @@
         <v>45191</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>45949.81171296296</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45278</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45951.4497337963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>45950.4672337963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>45387</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45342</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44580.87892361111</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44564</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45707</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45237.68157407407</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>45677</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>45555</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>45880</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>45665</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>45249.71587962963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45523</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>44663</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45959</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>45961.43761574074</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45961</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>45471.6508912037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45324.4834837963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45961.44432870371</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45961.43993055556</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>45961.44732638889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>45005</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45961</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45735</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44550</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45527</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45572.53379629629</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45719</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45966</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45295.4290625</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45330</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45966.6183912037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45966</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44319</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45771</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45176</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45971</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45367.71616898148</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45714</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>45714</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>45975.34126157407</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>44988.77804398148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>45603.61142361111</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>45133.75327546296</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>45975</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45733</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>45975</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>45439.89835648148</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35272,7 +35272,7 @@
         <v>45743</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35329,7 +35329,7 @@
         <v>45719</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45261</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>45977</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44777.69274305556</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35557,7 +35557,7 @@
         <v>45975</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>45428</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35671,7 +35671,7 @@
         <v>45980.35592592593</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>45356</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>45982.56765046297</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>44287</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45394</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45756.41225694444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45756</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45727</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45983</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>45146.50280092593</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>45982.59368055555</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44678.68165509259</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45603.70509259259</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45987.59451388889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45419</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>45988.59798611111</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>45988.55174768518</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>45988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>45989</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>45989</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>45988</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>45988.59486111111</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>45989</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>45989</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44881.5821412037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>45988.59108796297</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>45988</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>45337</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>45258.29427083334</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>45012.5621875</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44468.44650462963</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45992</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45993.60181712963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45611</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44509</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>45986</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>45993.44180555556</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>45707.45273148148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>46034.57228009259</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>45525.82263888889</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45719</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>46036.56621527778</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45995.48490740741</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45995.63555555556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>46037.53836805555</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>45996</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>46038.58667824074</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>46041.48625</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>46041.55094907407</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>45999.55011574074</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>45425.41623842593</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>45603.62186342593</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>45164.43252314815</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>46037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45756</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>46041.48872685185</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>46043</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45006.67759259259</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45477</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45639</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45639.60733796296</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45450</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45506</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44813</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44910.37921296297</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45728.48168981481</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45107</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>44960.33927083333</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45988</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45988</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45609</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45457.49069444444</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45988</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>46045.60822916667</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45775</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45522</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>45356</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>45352</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>46045.60420138889</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>46046</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>45433.62677083333</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>46006.31548611111</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45044</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>46006.31755787037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>46046</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>46006</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>46048.50357638889</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45222.48622685186</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45706</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45428</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40888,7 +40888,7 @@
         <v>46009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>46008.41583333333</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>45548</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>45439.91932870371</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>45313.45986111111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>45021.66313657408</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>45271.42207175926</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41287,7 +41287,7 @@
         <v>46009</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41344,7 +41344,7 @@
         <v>46008.41267361111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41401,7 +41401,7 @@
         <v>44509</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41458,7 +41458,7 @@
         <v>45617</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41515,7 +41515,7 @@
         <v>46010</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41572,7 +41572,7 @@
         <v>46055.5643287037</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>46055.6519675926</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>46055.64796296296</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>44378</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>45266</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>45581</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>45534.44462962963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>45156</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>44868</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45733.59439814815</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>45147.80305555555</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>45191.59171296296</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45740</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42323,7 +42323,7 @@
         <v>44552.4565162037</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42380,7 +42380,7 @@
         <v>45062.46313657407</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42437,7 +42437,7 @@
         <v>44463.44508101852</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42494,7 +42494,7 @@
         <v>46059.59567129629</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42551,7 +42551,7 @@
         <v>46016</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42608,7 +42608,7 @@
         <v>44392</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45758.55665509259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45685</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>46058.49802083334</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45237</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>46059.34946759259</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45348</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45405.68177083333</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>46045</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>44909.5743287037</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45771</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45564</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45609</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45078</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>46045</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>44824.65680555555</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45378</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45559</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45603</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
         <v>46062</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43748,7 +43748,7 @@
         <v>44603.36936342593</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43805,7 +43805,7 @@
         <v>45832</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44501</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>45012</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>45127</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>46065.36774305555</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>45471</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>45720</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45583</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44261,7 +44261,7 @@
         <v>45355</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44318,7 +44318,7 @@
         <v>45171.35449074074</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>45299</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>44916.60686342593</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45721</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45631</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45586.43513888889</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45068</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45534</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44774,7 +44774,7 @@
         <v>45679</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44831,7 +44831,7 @@
         <v>45070.33251157407</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44888,7 +44888,7 @@
         <v>44938.67820601852</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44945,7 +44945,7 @@
         <v>44745.57325231482</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>44370</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>45709</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>45368</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45173,7 +45173,7 @@
         <v>45454</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         <v>45098.48512731482</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45292,7 +45292,7 @@
         <v>45524</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45349,7 +45349,7 @@
         <v>45597</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45406,7 +45406,7 @@
         <v>45597</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45463,7 +45463,7 @@
         <v>46072.42784722222</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45520,7 +45520,7 @@
         <v>45616</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45582,7 +45582,7 @@
         <v>44861</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45639,7 +45639,7 @@
         <v>46030.54390046297</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45696,7 +45696,7 @@
         <v>46030.55771990741</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45753,7 +45753,7 @@
         <v>46030.5664699074</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45810,7 +45810,7 @@
         <v>45617</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>44763.60128472222</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45929,7 +45929,7 @@
         <v>45280.40775462963</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         <v>45278</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46043,7 +46043,7 @@
         <v>45495.46560185185</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46100,7 +46100,7 @@
         <v>45575</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>46073</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45211.58881944444</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46276,7 +46276,7 @@
         <v>45211.60106481481</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46333,7 +46333,7 @@
         <v>45775</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46390,7 +46390,7 @@
         <v>45775.4625</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46447,7 +46447,7 @@
         <v>46072.7534375</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44487</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46561,7 +46561,7 @@
         <v>45516</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46618,7 +46618,7 @@
         <v>45516</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>45379</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46732,7 +46732,7 @@
         <v>45237</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46789,7 +46789,7 @@
         <v>45106</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46846,7 +46846,7 @@
         <v>45223</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46903,7 +46903,7 @@
         <v>45736</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46960,7 +46960,7 @@
         <v>45546</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47017,7 +47017,7 @@
         <v>45392</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47074,7 +47074,7 @@
         <v>45537</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>45740</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47198,7 +47198,7 @@
         <v>45722.75255787037</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47255,7 +47255,7 @@
         <v>45712</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47312,7 +47312,7 @@
         <v>45631.46025462963</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>45089.90354166667</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         <v>44876.44770833333</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47483,7 +47483,7 @@
         <v>45457</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47540,7 +47540,7 @@
         <v>45341</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47597,7 +47597,7 @@
         <v>45383</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47654,7 +47654,7 @@
         <v>45727</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47711,7 +47711,7 @@
         <v>45303</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47768,7 +47768,7 @@
         <v>44509.60841435185</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47825,7 +47825,7 @@
         <v>45481</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47882,7 +47882,7 @@
         <v>44389.5525</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47939,7 +47939,7 @@
         <v>45547</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47996,7 +47996,7 @@
         <v>45707</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48053,7 +48053,7 @@
         <v>44450</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48110,7 +48110,7 @@
         <v>45156</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48167,7 +48167,7 @@
         <v>45527.34229166667</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48229,7 +48229,7 @@
         <v>44880</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>45635</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48343,7 +48343,7 @@
         <v>45253.47288194444</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48400,7 +48400,7 @@
         <v>45233</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48457,7 +48457,7 @@
         <v>44881</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48514,7 +48514,7 @@
         <v>44886</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48571,7 +48571,7 @@
         <v>45180.47318287037</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48628,7 +48628,7 @@
         <v>45474</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48685,7 +48685,7 @@
         <v>45569</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48742,7 +48742,7 @@
         <v>44980</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48799,7 +48799,7 @@
         <v>45303</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48856,7 +48856,7 @@
         <v>45358</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48913,7 +48913,7 @@
         <v>45575</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48970,7 +48970,7 @@
         <v>44952</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49027,7 +49027,7 @@
         <v>44812.56072916667</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>45095.48106481481</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>44488</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45267.67167824074</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45542</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49312,7 +49312,7 @@
         <v>45397.38871527778</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49369,7 +49369,7 @@
         <v>44758.50113425926</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         <v>45558</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         <v>45630.74324074074</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49545,7 +49545,7 @@
         <v>45704.63635416667</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49602,7 +49602,7 @@
         <v>45704</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49659,7 +49659,7 @@
         <v>44296</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49716,7 +49716,7 @@
         <v>45607</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49773,7 +49773,7 @@
         <v>45740.56710648148</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49835,7 +49835,7 @@
         <v>45625</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49892,7 +49892,7 @@
         <v>45573.62628472222</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49949,7 +49949,7 @@
         <v>44581.48815972222</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50006,7 +50006,7 @@
         <v>44564</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50063,7 +50063,7 @@
         <v>45542</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50120,7 +50120,7 @@
         <v>45421</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50177,7 +50177,7 @@
         <v>45707.38164351852</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50234,7 +50234,7 @@
         <v>44938.66984953704</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50291,7 +50291,7 @@
         <v>45567</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50348,7 +50348,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50405,7 +50405,7 @@
         <v>45527</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>44885</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>44523.46517361111</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50576,7 +50576,7 @@
         <v>44994</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50633,7 +50633,7 @@
         <v>45644</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>45685</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45728.48884259259</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45106.60681712963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45700</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50918,7 +50918,7 @@
         <v>44929.47711805555</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50975,7 +50975,7 @@
         <v>45426.42743055556</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45229.59701388889</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51089,7 +51089,7 @@
         <v>45191.49715277777</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51146,7 +51146,7 @@
         <v>45191</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>45630</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51260,7 +51260,7 @@
         <v>44959</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51317,7 +51317,7 @@
         <v>45237</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51374,7 +51374,7 @@
         <v>45735</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51431,7 +51431,7 @@
         <v>44921</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51488,7 +51488,7 @@
         <v>45720</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51550,7 +51550,7 @@
         <v>45692.40827546296</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51607,7 +51607,7 @@
         <v>45692.41335648148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51664,7 +51664,7 @@
         <v>44679</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45063</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51778,7 +51778,7 @@
         <v>45420</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51835,7 +51835,7 @@
         <v>44973</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51892,7 +51892,7 @@
         <v>45517.40324074074</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51949,7 +51949,7 @@
         <v>45681</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52006,7 +52006,7 @@
         <v>45385.59082175926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52063,7 +52063,7 @@
         <v>45491.48956018518</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52120,7 +52120,7 @@
         <v>45441</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52177,7 +52177,7 @@
         <v>45075</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52234,7 +52234,7 @@
         <v>44671</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         <v>45063</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52348,7 +52348,7 @@
         <v>45707</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52405,7 +52405,7 @@
         <v>45516</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52467,7 +52467,7 @@
         <v>45040</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52524,7 +52524,7 @@
         <v>45365</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52581,7 +52581,7 @@
         <v>45281</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52638,7 +52638,7 @@
         <v>45098.49775462963</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52695,7 +52695,7 @@
         <v>45098</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52752,7 +52752,7 @@
         <v>45386.64910879629</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52809,7 +52809,7 @@
         <v>44509</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52871,7 +52871,7 @@
         <v>44998.46248842592</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52928,7 +52928,7 @@
         <v>44574</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52985,7 +52985,7 @@
         <v>45361.64986111111</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53042,7 +53042,7 @@
         <v>45314</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53099,7 +53099,7 @@
         <v>44499</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53156,7 +53156,7 @@
         <v>45057</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53213,7 +53213,7 @@
         <v>44868</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>45769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>45149.34829861111</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>45273.33925925926</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53446,7 +53446,7 @@
         <v>45728</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53503,7 +53503,7 @@
         <v>44439</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53560,7 +53560,7 @@
         <v>45677.70292824074</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53617,7 +53617,7 @@
         <v>45040</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53674,7 +53674,7 @@
         <v>45393.67927083333</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         <v>44623</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53788,7 +53788,7 @@
         <v>45194.70186342593</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53845,7 +53845,7 @@
         <v>45672</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53902,7 +53902,7 @@
         <v>44448</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53959,7 +53959,7 @@
         <v>44489</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54016,7 +54016,7 @@
         <v>45380</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54073,7 +54073,7 @@
         <v>45779.62796296296</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54130,7 +54130,7 @@
         <v>45782</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54187,7 +54187,7 @@
         <v>45783.60231481482</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54244,7 +54244,7 @@
         <v>45369.4175</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54301,7 +54301,7 @@
         <v>45782</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54358,7 +54358,7 @@
         <v>45427</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54415,7 +54415,7 @@
         <v>45555</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54472,7 +54472,7 @@
         <v>45785</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54529,7 +54529,7 @@
         <v>45784</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54586,7 +54586,7 @@
         <v>45681</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54643,7 +54643,7 @@
         <v>45646</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54700,7 +54700,7 @@
         <v>45736</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54757,7 +54757,7 @@
         <v>45784</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54814,7 +54814,7 @@
         <v>45789</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54876,7 +54876,7 @@
         <v>45720</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54938,7 +54938,7 @@
         <v>45789.56633101852</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -54995,7 +54995,7 @@
         <v>45789</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55057,7 +55057,7 @@
         <v>44881</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55114,7 +55114,7 @@
         <v>45789</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55176,7 +55176,7 @@
         <v>45791.67365740741</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55238,7 +55238,7 @@
         <v>45790</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55300,7 +55300,7 @@
         <v>45790</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55362,7 +55362,7 @@
         <v>45790</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55424,7 +55424,7 @@
         <v>45790</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55486,7 +55486,7 @@
         <v>45791</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55543,7 +55543,7 @@
         <v>45791.71166666667</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55605,7 +55605,7 @@
         <v>45791.3975</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55662,7 +55662,7 @@
         <v>45790</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55724,7 +55724,7 @@
         <v>45790</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55786,7 +55786,7 @@
         <v>45790</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55843,7 +55843,7 @@
         <v>45790</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55905,7 +55905,7 @@
         <v>45790</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55967,7 +55967,7 @@
         <v>45793</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56024,7 +56024,7 @@
         <v>45239</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56081,7 +56081,7 @@
         <v>45796</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56138,7 +56138,7 @@
         <v>45644</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56195,7 +56195,7 @@
         <v>45707</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56252,7 +56252,7 @@
         <v>45796</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56309,7 +56309,7 @@
         <v>45323</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56366,7 +56366,7 @@
         <v>45638</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56423,7 +56423,7 @@
         <v>45798.38451388889</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56485,7 +56485,7 @@
         <v>45798.47412037037</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56547,7 +56547,7 @@
         <v>45799</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56604,7 +56604,7 @@
         <v>45798.47082175926</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56666,7 +56666,7 @@
         <v>45800</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56723,7 +56723,7 @@
         <v>45804.6821875</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56780,7 +56780,7 @@
         <v>45805</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56837,7 +56837,7 @@
         <v>45807.57009259259</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56894,7 +56894,7 @@
         <v>45807.57471064815</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56951,7 +56951,7 @@
         <v>45807.57306712963</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57008,7 +57008,7 @@
         <v>45811</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57070,7 +57070,7 @@
         <v>45615</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57127,7 +57127,7 @@
         <v>45811</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57184,7 +57184,7 @@
         <v>45520.48883101852</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57241,7 +57241,7 @@
         <v>45811</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57298,7 +57298,7 @@
         <v>45582</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57355,7 +57355,7 @@
         <v>45811.43605324074</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57417,7 +57417,7 @@
         <v>45503</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57474,7 +57474,7 @@
         <v>45358</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57531,7 +57531,7 @@
         <v>45630</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57588,7 +57588,7 @@
         <v>44872</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         <v>45771</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57702,7 +57702,7 @@
         <v>45607</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57759,7 +57759,7 @@
         <v>45813</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57816,7 +57816,7 @@
         <v>45575.63483796296</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57873,7 +57873,7 @@
         <v>45419</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57930,7 +57930,7 @@
         <v>45623</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57987,7 +57987,7 @@
         <v>45763</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58044,7 +58044,7 @@
         <v>45646</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58101,7 +58101,7 @@
         <v>45761</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58158,7 +58158,7 @@
         <v>45646</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -575,7 +575,7 @@
         <v>45665</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45915.71048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45581</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45203</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>44867</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>45665</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>45460</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>45988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>44673</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44658.61030092592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44392.70586805556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45572</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45534</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45912.64041666667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>45237</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45728</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45932.46107638889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45933.36122685186</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45938.55289351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44589</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>45384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44938</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>46030</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44446</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45323</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45793</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>45397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44354</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44512.50644675926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44512.51515046296</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44629</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44735</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44787.59047453704</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44582.59763888889</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44509.66182870371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44830</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44385.41387731482</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44389</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44508.64581018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44347.64283564815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44266.47996527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44280</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44328.4728125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44258</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44386.48466435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44581</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44418</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44488</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44523.42877314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44719.48916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44552</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44580.31994212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44523.43002314815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44448.58052083333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44886.48966435185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44509</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44260</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44750</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44552</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44581</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44776</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44392</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44392</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44392</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44824</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44748.390625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44735.57664351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44456</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44466</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44301.5815625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44264</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44258</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44745</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44494</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44362</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44251</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44454</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44385.44270833334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44412</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44385</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44512.50206018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44787</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44392</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44389.54732638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44378</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44403</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44423</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44270</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44389.50047453704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44624.63793981481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44602.61702546296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44491.55930555556</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44543.47636574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44299</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44505.63077546296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44358</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44676</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44448.5831712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44440</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44446</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44377.61174768519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44719.48399305555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44438</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44780.62675925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44780.62833333333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44846</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44840.47571759259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44840.48149305556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44557</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44449</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44762</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44711.68866898148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44861</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>44780.62754629629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>44302.39375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>44400</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>44607</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>44602.52010416667</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>44607</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>44868.4477662037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>44629</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>44434.40748842592</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44347.63983796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44616</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44649</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44389.64984953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44546</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44550</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44417.52393518519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44538</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44759</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44819</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44785</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44806</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44526</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44439</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44334</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44421</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44424</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44616.59842592593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44719.4793287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44644</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44404.53424768519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44378</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44658.58828703704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44787.57554398148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44826</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44683.5315625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44679</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44258</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44686</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44343</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44762.81606481481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44698</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44505</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44627.6694212963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44820.35306712963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44389</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44389</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44784.38228009259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44829.64430555556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>44294</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44572.6740625</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45425</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45740</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45740</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44322</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44825.35525462963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44362</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44546</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>45617</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12525,7 +12525,7 @@
         <v>45430</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>45278</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45306</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>45712</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>45572</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45050</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45050</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>45432</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45621</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>45768</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>45266.55052083333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45763</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45720.92059027778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45425</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45747.31423611111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>45266</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>45279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44745.53890046296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45253</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>44419.53694444444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45171.36037037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45113.64356481482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44512</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45278</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45278.42649305556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44606</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44830</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44709.56806712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45092.34506944445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45392</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45639.50815972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45639.51513888889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>45575</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>45631</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>45173</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44627</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>45231.56270833333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44823.3628587963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45146</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45709.55030092593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44895</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45301</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45238.80616898148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>45769</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
         <v>45723.89909722222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         <v>45107</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15244,7 +15244,7 @@
         <v>45617</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15301,7 +15301,7 @@
         <v>45558.45792824074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15358,7 +15358,7 @@
         <v>44852.82453703704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>45226</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44419</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45005.39711805555</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45454</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45331.32953703704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44487</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>45699</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>45747.30980324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45729</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15953,7 +15953,7 @@
         <v>44720.395625</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
         <v>44763.62467592592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>45162</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>44911</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>45595</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>45398</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>45374</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>45374</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>45747</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>44538</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45775</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>45676</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>45460</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>45222.47865740741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>45740.4903587963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16823,7 +16823,7 @@
         <v>45506.50138888889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>45264</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>45189.46061342592</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44881</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>45372</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45736</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45516.6842824074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45699</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45589</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45817</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44819</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45711.44690972222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45818</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>45728</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45113.63711805556</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45596</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44284.54657407408</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45757.40585648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45646</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44993.43474537037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44924.74262731482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44490.6284837963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>45740</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45771</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45820</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45888.66510416667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45888.65850694444</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44853.38101851852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45825.4028587963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45888</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45888.3778587963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45888.37590277778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44635.57199074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45834</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>45825.39515046297</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>45848</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45891</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45890</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45890</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>45659</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>45848</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44900</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45723.43067129629</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45826.54501157408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>45082</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45895.4925</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45895.49542824074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45894</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45827.65681712963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45826.48171296297</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45251</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>45893</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45471</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45471</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45893</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45831</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>45893</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45893</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45831.24026620371</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45411</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>44858</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45895</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45831.24456018519</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45831.24898148148</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45831</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45146</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45403</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45147.67074074074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45253.61355324074</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45832.46424768519</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45896</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>44896</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45832</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>44976</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45631.44657407407</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45716</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45082</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45898</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45901</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45888</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44608</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44609.47098379629</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>45835.54383101852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>45880</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>45881</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>45877</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>45667</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>45667</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>45667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>44587</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45744</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>45138.63635416667</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>44564.44407407408</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22387,7 +22387,7 @@
         <v>45881</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>45881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>45881</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45418.65100694444</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>45903</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>45902</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
         <v>45902.3049537037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>45902</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>45902.94583333333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22900,7 +22900,7 @@
         <v>44734</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
         <v>45902.38271990741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>45838</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>44629.61861111111</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45837</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>44993</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45905</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>45904</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>45212.56989583333</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>45608</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>45904.49318287037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>45904.49505787037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44509.46195601852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>45866.36243055556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>45841</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>45908.3643287037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45901</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45013.61559027778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>45841</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>45055</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24045,7 +24045,7 @@
         <v>45910</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45910</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24159,7 +24159,7 @@
         <v>45842</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>45842</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>45845.71586805556</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24330,7 +24330,7 @@
         <v>45099.48193287037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>45910.75832175926</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24444,7 +24444,7 @@
         <v>45358</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24501,7 +24501,7 @@
         <v>45845</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>45912.63494212963</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24615,7 +24615,7 @@
         <v>45912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24672,7 +24672,7 @@
         <v>45915.49105324074</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24729,7 +24729,7 @@
         <v>45915.38284722222</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44943</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24843,7 +24843,7 @@
         <v>45107</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24900,7 +24900,7 @@
         <v>45913.63548611111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         <v>45832</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         <v>45845.57018518518</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>45808</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>45012</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>45156.36695601852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>45847.43850694445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>45915.38431712963</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>45673</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>45912.63859953704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45847.61231481482</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>45847</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45847</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45847</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45847</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>45912</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45841</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>44550</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>45855.40596064815</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>45769</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>45918.28855324074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>45728</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>45922</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45922</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26273,7 +26273,7 @@
         <v>45922</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26330,7 +26330,7 @@
         <v>45733.61358796297</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26387,7 +26387,7 @@
         <v>45922</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>45922</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>45582.63302083333</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>45642</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>45387.48815972222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>45639.5108912037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>45924.61424768518</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45729</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>45924.79767361111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45866</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45925</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44846</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45929.72997685185</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45148.58145833333</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45113.64834490741</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45113.65050925926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45871.59560185186</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>44879</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45929.74762731481</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>44985</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45453</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45208</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45303.81282407408</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44994.44269675926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45874</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45931</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45874</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45874</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45931.68141203704</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45874</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45932.94513888889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45278</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>45527.32226851852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28454,7 +28454,7 @@
         <v>45931.94607638889</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45310.58418981481</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45356</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45746</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45343.45314814815</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45537</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45932.5705787037</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45497</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45932.52427083333</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>45932.56517361111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45189.4577662037</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44550</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>45769.44701388889</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45933.34677083333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45932.45870370371</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45334</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45245</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45932.72905092593</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45880</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29557,7 +29557,7 @@
         <v>45711.45023148148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45931</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45881.61653935185</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45881</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45168.65633101852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45881</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45936.46237268519</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45880</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>45881.88849537037</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30070,7 +30070,7 @@
         <v>45239</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30127,7 +30127,7 @@
         <v>45239</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30184,7 +30184,7 @@
         <v>45817</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30241,7 +30241,7 @@
         <v>45877</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30298,7 +30298,7 @@
         <v>44392</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30355,7 +30355,7 @@
         <v>45883.66013888889</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30417,7 +30417,7 @@
         <v>44936.57364583333</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30474,7 +30474,7 @@
         <v>45937.66600694445</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30531,7 +30531,7 @@
         <v>45547</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30588,7 +30588,7 @@
         <v>45089.91476851852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         <v>45391</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30702,7 +30702,7 @@
         <v>45938</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30759,7 +30759,7 @@
         <v>45937</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30816,7 +30816,7 @@
         <v>45937</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30873,7 +30873,7 @@
         <v>45723.466875</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30930,7 +30930,7 @@
         <v>45621.39435185185</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30987,7 +30987,7 @@
         <v>45301</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31044,7 +31044,7 @@
         <v>45943</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31101,7 +31101,7 @@
         <v>45576</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31158,7 +31158,7 @@
         <v>45204</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45203</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>44606</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45944.58974537037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>44659</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45944.56200231481</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45944.56563657407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45944.58201388889</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45012</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45278.43013888889</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>44916.65094907407</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>44943.50019675926</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45944.62978009259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45945</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>44671</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>44607</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>45358</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         <v>45282</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>45946.44969907407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32246,7 +32246,7 @@
         <v>45191</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>45949.81171296296</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>45278</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32417,7 +32417,7 @@
         <v>45951.4497337963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32474,7 +32474,7 @@
         <v>45950.4672337963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32531,7 +32531,7 @@
         <v>45387</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45342</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>44580.87892361111</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44564</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32764,7 +32764,7 @@
         <v>45707</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45237.68157407407</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>45677</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>45555</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>45880</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>45665</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>45249.71587962963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45523</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>44663</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45959</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>45961.43761574074</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45961</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>45471.6508912037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45324.4834837963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45961.44432870371</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45961.43993055556</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>45961.44732638889</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>45005</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45961</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45735</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44550</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45527</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45572.53379629629</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45719</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>45966</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>45295.4290625</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45330</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45966.6183912037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>45966</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44319</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45771</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45176</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45971</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45367.71616898148</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45714</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>45714</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>45975.34126157407</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>44988.77804398148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>45603.61142361111</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>45133.75327546296</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>45975</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45733</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>45975</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>45439.89835648148</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35272,7 +35272,7 @@
         <v>45743</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35329,7 +35329,7 @@
         <v>45719</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>45261</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>45977</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44777.69274305556</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35557,7 +35557,7 @@
         <v>45975</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>45428</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35671,7 +35671,7 @@
         <v>45980.35592592593</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>45356</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>45982.56765046297</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>44287</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45394</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45756.41225694444</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45756</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45727</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45983</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>45146.50280092593</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>45982.59368055555</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44678.68165509259</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45603.70509259259</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45987.59451388889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45419</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>45988.59798611111</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>45988.55174768518</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>45988</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>45989</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>45989</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>45988</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>45988.59486111111</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>45989</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>45989</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>44881.5821412037</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>45988.59108796297</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>45988</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>45337</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>45258.29427083334</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>45012.5621875</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>44468.44650462963</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45992</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45993.60181712963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45611</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>44509</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>45986</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>45993.44180555556</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>45707.45273148148</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>46034.57228009259</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>45525.82263888889</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45719</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>46036.56621527778</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45995.48490740741</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45995.63555555556</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>46037.53836805555</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>45996</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>46038.58667824074</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>46041.48625</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>46041.55094907407</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>45999.55011574074</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>45425.41623842593</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>45603.62186342593</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>45164.43252314815</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>46037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45756</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>46041.48872685185</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>46043</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45006.67759259259</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45477</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45639</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45639.60733796296</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45450</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45506</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>44813</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39344,7 +39344,7 @@
         <v>44910.37921296297</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45728.48168981481</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>45107</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>44960.33927083333</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45988</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45988</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45609</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45457.49069444444</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45988</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>46045.60822916667</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
         <v>45775</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
         <v>45522</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40090,7 +40090,7 @@
         <v>45356</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40147,7 +40147,7 @@
         <v>45352</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40204,7 +40204,7 @@
         <v>46045.60420138889</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40261,7 +40261,7 @@
         <v>46046</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40318,7 +40318,7 @@
         <v>45433.62677083333</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40375,7 +40375,7 @@
         <v>46006.31548611111</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40432,7 +40432,7 @@
         <v>45044</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40489,7 +40489,7 @@
         <v>46006.31755787037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         <v>46046</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40603,7 +40603,7 @@
         <v>46006</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40660,7 +40660,7 @@
         <v>46048.50357638889</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>45222.48622685186</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40774,7 +40774,7 @@
         <v>45706</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>45428</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40888,7 +40888,7 @@
         <v>46009</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40945,7 +40945,7 @@
         <v>46008.41583333333</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41002,7 +41002,7 @@
         <v>45548</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         <v>45439.91932870371</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41116,7 +41116,7 @@
         <v>45313.45986111111</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41173,7 +41173,7 @@
         <v>45021.66313657408</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>45271.42207175926</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41287,7 +41287,7 @@
         <v>46009</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41344,7 +41344,7 @@
         <v>46008.41267361111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41401,7 +41401,7 @@
         <v>44509</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41458,7 +41458,7 @@
         <v>45617</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41515,7 +41515,7 @@
         <v>46010</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41572,7 +41572,7 @@
         <v>46055.5643287037</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41629,7 +41629,7 @@
         <v>46055.6519675926</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>46055.64796296296</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41743,7 +41743,7 @@
         <v>44378</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>45266</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>45581</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>45534.44462962963</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41976,7 +41976,7 @@
         <v>45156</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>44868</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45733.59439814815</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42147,7 +42147,7 @@
         <v>45147.80305555555</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42204,7 +42204,7 @@
         <v>45191.59171296296</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>45740</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42323,7 +42323,7 @@
         <v>44552.4565162037</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42380,7 +42380,7 @@
         <v>45062.46313657407</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42437,7 +42437,7 @@
         <v>44463.44508101852</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42494,7 +42494,7 @@
         <v>46059.59567129629</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42551,7 +42551,7 @@
         <v>46016</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42608,7 +42608,7 @@
         <v>44392</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45758.55665509259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45685</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>46058.49802083334</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45237</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>46059.34946759259</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45348</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45405.68177083333</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>46045</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>44909.5743287037</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45771</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45564</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45609</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45078</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>46045</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>44824.65680555555</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45378</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45559</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45603</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43691,7 +43691,7 @@
         <v>46062</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43748,7 +43748,7 @@
         <v>44603.36936342593</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43805,7 +43805,7 @@
         <v>45832</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43862,7 +43862,7 @@
         <v>44501</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43919,7 +43919,7 @@
         <v>45012</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43976,7 +43976,7 @@
         <v>45127</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44033,7 +44033,7 @@
         <v>46065.36774305555</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>45471</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44147,7 +44147,7 @@
         <v>45720</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45583</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44261,7 +44261,7 @@
         <v>45355</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44318,7 +44318,7 @@
         <v>45171.35449074074</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44375,7 +44375,7 @@
         <v>45299</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44432,7 +44432,7 @@
         <v>44916.60686342593</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44489,7 +44489,7 @@
         <v>45721</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         <v>45631</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44603,7 +44603,7 @@
         <v>45586.43513888889</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44660,7 +44660,7 @@
         <v>45068</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44717,7 +44717,7 @@
         <v>45534</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44774,7 +44774,7 @@
         <v>45679</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44831,7 +44831,7 @@
         <v>45070.33251157407</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44888,7 +44888,7 @@
         <v>44938.67820601852</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44945,7 +44945,7 @@
         <v>44745.57325231482</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>44370</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>45709</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>45368</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45173,7 +45173,7 @@
         <v>45454</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         <v>45098.48512731482</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45292,7 +45292,7 @@
         <v>45524</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45349,7 +45349,7 @@
         <v>45597</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45406,7 +45406,7 @@
         <v>45597</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45463,7 +45463,7 @@
         <v>46072.42784722222</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45520,7 +45520,7 @@
         <v>45616</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45582,7 +45582,7 @@
         <v>44861</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45639,7 +45639,7 @@
         <v>46030.54390046297</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45696,7 +45696,7 @@
         <v>46030.55771990741</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45753,7 +45753,7 @@
         <v>46030.5664699074</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45810,7 +45810,7 @@
         <v>45617</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>44763.60128472222</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45929,7 +45929,7 @@
         <v>45280.40775462963</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         <v>45278</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46043,7 +46043,7 @@
         <v>45495.46560185185</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46100,7 +46100,7 @@
         <v>45575</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>46073</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46219,7 +46219,7 @@
         <v>45211.58881944444</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46276,7 +46276,7 @@
         <v>45211.60106481481</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46333,7 +46333,7 @@
         <v>45775</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46390,7 +46390,7 @@
         <v>45775.4625</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46447,7 +46447,7 @@
         <v>46072.7534375</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46504,7 +46504,7 @@
         <v>44487</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46561,7 +46561,7 @@
         <v>45516</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46618,7 +46618,7 @@
         <v>45516</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         <v>45379</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46732,7 +46732,7 @@
         <v>45237</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46789,7 +46789,7 @@
         <v>45106</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46846,7 +46846,7 @@
         <v>45223</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46903,7 +46903,7 @@
         <v>45736</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46960,7 +46960,7 @@
         <v>45546</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -47017,7 +47017,7 @@
         <v>45392</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47074,7 +47074,7 @@
         <v>45537</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47136,7 +47136,7 @@
         <v>45740</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47198,7 +47198,7 @@
         <v>45722.75255787037</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47255,7 +47255,7 @@
         <v>45712</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47312,7 +47312,7 @@
         <v>45631.46025462963</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47369,7 +47369,7 @@
         <v>45089.90354166667</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         <v>44876.44770833333</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47483,7 +47483,7 @@
         <v>45457</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47540,7 +47540,7 @@
         <v>45341</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47597,7 +47597,7 @@
         <v>45383</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47654,7 +47654,7 @@
         <v>45727</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47711,7 +47711,7 @@
         <v>45303</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47768,7 +47768,7 @@
         <v>44509.60841435185</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47825,7 +47825,7 @@
         <v>45481</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47882,7 +47882,7 @@
         <v>44389.5525</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47939,7 +47939,7 @@
         <v>45547</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47996,7 +47996,7 @@
         <v>45707</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48053,7 +48053,7 @@
         <v>44450</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48110,7 +48110,7 @@
         <v>45156</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48167,7 +48167,7 @@
         <v>45527.34229166667</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48229,7 +48229,7 @@
         <v>44880</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48286,7 +48286,7 @@
         <v>45635</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48343,7 +48343,7 @@
         <v>45253.47288194444</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48400,7 +48400,7 @@
         <v>45233</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48457,7 +48457,7 @@
         <v>44881</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48514,7 +48514,7 @@
         <v>44886</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48571,7 +48571,7 @@
         <v>45180.47318287037</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48628,7 +48628,7 @@
         <v>45474</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48685,7 +48685,7 @@
         <v>45569</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48742,7 +48742,7 @@
         <v>44980</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48799,7 +48799,7 @@
         <v>45303</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48856,7 +48856,7 @@
         <v>45358</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48913,7 +48913,7 @@
         <v>45575</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48970,7 +48970,7 @@
         <v>44952</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49027,7 +49027,7 @@
         <v>44812.56072916667</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49084,7 +49084,7 @@
         <v>45095.48106481481</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49141,7 +49141,7 @@
         <v>44488</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>45267.67167824074</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45542</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49312,7 +49312,7 @@
         <v>45397.38871527778</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49369,7 +49369,7 @@
         <v>44758.50113425926</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         <v>45558</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         <v>45630.74324074074</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49545,7 +49545,7 @@
         <v>45704.63635416667</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49602,7 +49602,7 @@
         <v>45704</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49659,7 +49659,7 @@
         <v>44296</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49716,7 +49716,7 @@
         <v>45607</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49773,7 +49773,7 @@
         <v>45740.56710648148</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49835,7 +49835,7 @@
         <v>45625</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49892,7 +49892,7 @@
         <v>45573.62628472222</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49949,7 +49949,7 @@
         <v>44581.48815972222</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -50006,7 +50006,7 @@
         <v>44564</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50063,7 +50063,7 @@
         <v>45542</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50120,7 +50120,7 @@
         <v>45421</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50177,7 +50177,7 @@
         <v>45707.38164351852</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50234,7 +50234,7 @@
         <v>44938.66984953704</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50291,7 +50291,7 @@
         <v>45567</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50348,7 +50348,7 @@
         <v>45107</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50405,7 +50405,7 @@
         <v>45527</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50462,7 +50462,7 @@
         <v>44885</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50519,7 +50519,7 @@
         <v>44523.46517361111</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50576,7 +50576,7 @@
         <v>44994</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50633,7 +50633,7 @@
         <v>45644</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50690,7 +50690,7 @@
         <v>45685</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50747,7 +50747,7 @@
         <v>45728.48884259259</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50804,7 +50804,7 @@
         <v>45106.60681712963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50861,7 +50861,7 @@
         <v>45700</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50918,7 +50918,7 @@
         <v>44929.47711805555</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50975,7 +50975,7 @@
         <v>45426.42743055556</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51032,7 +51032,7 @@
         <v>45229.59701388889</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51089,7 +51089,7 @@
         <v>45191.49715277777</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51146,7 +51146,7 @@
         <v>45191</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>45630</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51260,7 +51260,7 @@
         <v>44959</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51317,7 +51317,7 @@
         <v>45237</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51374,7 +51374,7 @@
         <v>45735</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51431,7 +51431,7 @@
         <v>44921</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51488,7 +51488,7 @@
         <v>45720</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51550,7 +51550,7 @@
         <v>45692.40827546296</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51607,7 +51607,7 @@
         <v>45692.41335648148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51664,7 +51664,7 @@
         <v>44679</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45063</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51778,7 +51778,7 @@
         <v>45420</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51835,7 +51835,7 @@
         <v>44973</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51892,7 +51892,7 @@
         <v>45517.40324074074</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51949,7 +51949,7 @@
         <v>45681</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52006,7 +52006,7 @@
         <v>45385.59082175926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52063,7 +52063,7 @@
         <v>45491.48956018518</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52120,7 +52120,7 @@
         <v>45441</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52177,7 +52177,7 @@
         <v>45075</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52234,7 +52234,7 @@
         <v>44671</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         <v>45063</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52348,7 +52348,7 @@
         <v>45707</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52405,7 +52405,7 @@
         <v>45516</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52467,7 +52467,7 @@
         <v>45040</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52524,7 +52524,7 @@
         <v>45365</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52581,7 +52581,7 @@
         <v>45281</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52638,7 +52638,7 @@
         <v>45098.49775462963</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52695,7 +52695,7 @@
         <v>45098</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52752,7 +52752,7 @@
         <v>45386.64910879629</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52809,7 +52809,7 @@
         <v>44509</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52871,7 +52871,7 @@
         <v>44998.46248842592</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52928,7 +52928,7 @@
         <v>44574</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52985,7 +52985,7 @@
         <v>45361.64986111111</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53042,7 +53042,7 @@
         <v>45314</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53099,7 +53099,7 @@
         <v>44499</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53156,7 +53156,7 @@
         <v>45057</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53213,7 +53213,7 @@
         <v>44868</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53270,7 +53270,7 @@
         <v>45769</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>45149.34829861111</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>45273.33925925926</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53446,7 +53446,7 @@
         <v>45728</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53503,7 +53503,7 @@
         <v>44439</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53560,7 +53560,7 @@
         <v>45677.70292824074</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53617,7 +53617,7 @@
         <v>45040</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53674,7 +53674,7 @@
         <v>45393.67927083333</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         <v>44623</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53788,7 +53788,7 @@
         <v>45194.70186342593</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53845,7 +53845,7 @@
         <v>45672</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53902,7 +53902,7 @@
         <v>44448</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53959,7 +53959,7 @@
         <v>44489</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54016,7 +54016,7 @@
         <v>45380</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54073,7 +54073,7 @@
         <v>45779.62796296296</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54130,7 +54130,7 @@
         <v>45782</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54187,7 +54187,7 @@
         <v>45783.60231481482</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54244,7 +54244,7 @@
         <v>45369.4175</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54301,7 +54301,7 @@
         <v>45782</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54358,7 +54358,7 @@
         <v>45427</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54415,7 +54415,7 @@
         <v>45555</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54472,7 +54472,7 @@
         <v>45785</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54529,7 +54529,7 @@
         <v>45784</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54586,7 +54586,7 @@
         <v>45681</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54643,7 +54643,7 @@
         <v>45646</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54700,7 +54700,7 @@
         <v>45736</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54757,7 +54757,7 @@
         <v>45784</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54814,7 +54814,7 @@
         <v>45789</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54876,7 +54876,7 @@
         <v>45720</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54938,7 +54938,7 @@
         <v>45789.56633101852</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -54995,7 +54995,7 @@
         <v>45789</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55057,7 +55057,7 @@
         <v>44881</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55114,7 +55114,7 @@
         <v>45789</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55176,7 +55176,7 @@
         <v>45791.67365740741</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55238,7 +55238,7 @@
         <v>45790</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55300,7 +55300,7 @@
         <v>45790</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55362,7 +55362,7 @@
         <v>45790</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55424,7 +55424,7 @@
         <v>45790</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55486,7 +55486,7 @@
         <v>45791</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55543,7 +55543,7 @@
         <v>45791.71166666667</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55605,7 +55605,7 @@
         <v>45791.3975</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55662,7 +55662,7 @@
         <v>45790</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55724,7 +55724,7 @@
         <v>45790</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55786,7 +55786,7 @@
         <v>45790</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55843,7 +55843,7 @@
         <v>45790</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55905,7 +55905,7 @@
         <v>45790</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55967,7 +55967,7 @@
         <v>45793</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -56024,7 +56024,7 @@
         <v>45239</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56081,7 +56081,7 @@
         <v>45796</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56138,7 +56138,7 @@
         <v>45644</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56195,7 +56195,7 @@
         <v>45707</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56252,7 +56252,7 @@
         <v>45796</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56309,7 +56309,7 @@
         <v>45323</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56366,7 +56366,7 @@
         <v>45638</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56423,7 +56423,7 @@
         <v>45798.38451388889</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56485,7 +56485,7 @@
         <v>45798.47412037037</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56547,7 +56547,7 @@
         <v>45799</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56604,7 +56604,7 @@
         <v>45798.47082175926</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56666,7 +56666,7 @@
         <v>45800</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56723,7 +56723,7 @@
         <v>45804.6821875</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56780,7 +56780,7 @@
         <v>45805</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56837,7 +56837,7 @@
         <v>45807.57009259259</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56894,7 +56894,7 @@
         <v>45807.57471064815</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56951,7 +56951,7 @@
         <v>45807.57306712963</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -57008,7 +57008,7 @@
         <v>45811</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57070,7 +57070,7 @@
         <v>45615</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57127,7 +57127,7 @@
         <v>45811</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57184,7 +57184,7 @@
         <v>45520.48883101852</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57241,7 +57241,7 @@
         <v>45811</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57298,7 +57298,7 @@
         <v>45582</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57355,7 +57355,7 @@
         <v>45811.43605324074</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57417,7 +57417,7 @@
         <v>45503</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57474,7 +57474,7 @@
         <v>45358</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57531,7 +57531,7 @@
         <v>45630</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57588,7 +57588,7 @@
         <v>44872</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         <v>45771</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57702,7 +57702,7 @@
         <v>45607</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57759,7 +57759,7 @@
         <v>45813</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57816,7 +57816,7 @@
         <v>45575.63483796296</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57873,7 +57873,7 @@
         <v>45419</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57930,7 +57930,7 @@
         <v>45623</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57987,7 +57987,7 @@
         <v>45763</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58044,7 +58044,7 @@
         <v>45646</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58101,7 +58101,7 @@
         <v>45761</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58158,7 +58158,7 @@
         <v>45646</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -575,7 +575,7 @@
         <v>45665</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45915.71048611111</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>45581</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45203</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>44867</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44452</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>44673</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>45665</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45988</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>45460</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44658.61030092592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>44392.70586805556</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44762</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45237</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>45323</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>45889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45912.64041666667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45728</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>45932.46107638889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>45933.36122685186</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>45938.55289351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>45572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
         <v>44938</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44589</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>46030</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44936</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>45384</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>45534</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45793</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>45397</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>44322</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>44354</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44582.59763888889</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>44509.66182870371</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>44512.50644675926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44385.41387731482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44378</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>44629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>44629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>44735</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>44787.59047453704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>44512.51515046296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>44285</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44508.64581018518</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44347.64283564815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44266.47996527778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44280</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44328.4728125</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44258</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44473</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>44386.48466435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>44475</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>44581</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44418</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44488</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44351</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>44523</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>44523.42877314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>44719.48916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>44580.31994212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>44552</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>44523.43002314815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>44886.48966435185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44260</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>44448.58052083333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44750</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44552</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44581</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>44776</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>44392</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>44392</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>44392</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>44824</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>44748.390625</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44735.57664351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>44431</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>44456</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44466</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44301.5815625</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44264</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44258</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44745</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44494</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44362</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44454</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44385.44270833334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44412</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44385</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44787</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44512.50206018519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44392</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44378</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44389.54732638889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44270</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44389.50047453704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44602.61702546296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44491.55930555556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44624.63793981481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44403</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44468</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44543.47636574074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44299</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44505.63077546296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44358</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44676</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44448.5831712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44629</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44377.61174768519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44438</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44440</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44446</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44719.48399305555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44780.62675925926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44780.62833333333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44511</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>44392</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44840.47571759259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44840.48149305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44449</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>44557</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44711.68866898148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>44762</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44861</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>44780.62754629629</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>44302.39375</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>44400</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>44607</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9199,7 +9199,7 @@
         <v>44607</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         <v>44602.52010416667</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9313,7 +9313,7 @@
         <v>44868.4477662037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>44629</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>44434.40748842592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
         <v>44615</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         <v>44616</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>44347.63983796296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44649</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44389.64984953704</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44546</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44550</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44417.52393518519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44538</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44759</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44819</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44785</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44806</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44526</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44439</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44334</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44421</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44424</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44616.59842592593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44719.4793287037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44644</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44404.53424768519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44378</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44658.58828703704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>44787.57554398148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>44826</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44683.5315625</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11085,7 +11085,7 @@
         <v>44679</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>44258</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         <v>44686</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>44343</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44762.81606481481</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>44518</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44389</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>44389</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44505</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44627.6694212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44820.35306712963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>44784.38228009259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>44294</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>44829.64430555556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45712</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12007,7 +12007,7 @@
         <v>44334</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
         <v>45208</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
         <v>45769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12183,7 +12183,7 @@
         <v>45379</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>45723.89909722222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>45405.68177083333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>45367.71616898148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44825.35525462963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>45720.92059027778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44287</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>45385.59082175926</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>45392</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>45392</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>45428</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45471</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44370</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>45261</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>45558</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45756.41225694444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>45301</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>45756</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>45756</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>45454</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45386.64910879629</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44868</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>45070.33251157407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45457.49069444444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45237</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44392</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44550</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44861</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44911</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45720</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>45453</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>44916.60686342593</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14022,7 +14022,7 @@
         <v>45278</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45107</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         <v>45573.62628472222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>45516</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45106</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>44938.67820601852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>44819</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>45306</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>45454</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44881</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>45342</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>45146</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         <v>45439.89835648148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         <v>44512</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>44572.6740625</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44509</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>45589</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>45253.61355324074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>45303</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>45631</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44564</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>45420</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>45050</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>45050</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>45516.6842824074</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44943</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>45428</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>45729</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45075</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>44876.44770833333</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>45524</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45537</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>44564.44407407408</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44993.43474537037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45148.58145833333</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45547</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>45194.70186342593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45113.63711805556</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45113.64356481482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45534</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44362</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>45491.48956018518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45804.6821875</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45547</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45805</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>45877</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>45817</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45888.66510416667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>45888.65850694444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>45520.48883101852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>45343.45314814815</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>44627</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>45575</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         <v>45617</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>45807.57306712963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>45807.57471064815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>45358</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45888.3778587963</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45582</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>44872</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45503</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>45630</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45807.57009259259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>45888.37590277778</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45834</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45607</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45811</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>45888</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45811.43605324074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>45811</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44580.87892361111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>45740.4903587963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44720.395625</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>45575.63483796296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>45231.56270833333</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>45233</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
         <v>45771</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45811</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18627,7 +18627,7 @@
         <v>45419</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>45098.49775462963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>45012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45432</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45813</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45569</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45890</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         <v>45890</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>45757.40585648148</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45818</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>45623</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19254,7 +19254,7 @@
         <v>45646</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45646</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45763</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>44284.54657407408</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>45761</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>45575</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>45646</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45817</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>45893</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45848</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>44574</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45893</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45820</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45894</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45848</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>44943.50019675926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>45564</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>45891</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>45893</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20337,7 +20337,7 @@
         <v>45893</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45222.47865740741</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20451,7 +20451,7 @@
         <v>44985</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20508,7 +20508,7 @@
         <v>44659</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         <v>44678.68165509259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20622,7 +20622,7 @@
         <v>45895.49542824074</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20679,7 +20679,7 @@
         <v>45896</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20736,7 +20736,7 @@
         <v>45826.54501157408</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>45826.48171296297</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>45895.4925</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20907,7 +20907,7 @@
         <v>45895</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45418.65100694444</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21021,7 +21021,7 @@
         <v>45825.4028587963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21078,7 +21078,7 @@
         <v>45082</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45138.63635416667</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45877</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45898</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45825.39515046297</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45707</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>45827.65681712963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>45881</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>45902</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>45902.38271990741</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         <v>45902.3049537037</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21705,7 +21705,7 @@
         <v>44980</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>45902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21819,7 +21819,7 @@
         <v>45881</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>45880</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>45881</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>45881</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>45831.24898148148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>45888</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>45831</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44745.53890046296</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45238.80616898148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45901</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45832.46424768519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45902.94583333333</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45831.24026620371</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45831.24456018519</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45832</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45904</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>45740</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45426.42743055556</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>45903</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>45831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22964,7 +22964,7 @@
         <v>45904.49318287037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45904.49505787037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45832</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45905</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45559</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44679</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23306,7 +23306,7 @@
         <v>45901</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
         <v>45156</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23420,7 +23420,7 @@
         <v>45397.38871527778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23477,7 +23477,7 @@
         <v>45866.36243055556</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>45168.65633101852</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23591,7 +23591,7 @@
         <v>45095.48106481481</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23648,7 +23648,7 @@
         <v>44994.44269675926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23705,7 +23705,7 @@
         <v>45603.62186342593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
         <v>45908.3643287037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45068</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>45835.54383101852</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44489</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45838</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>45740</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>45837</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24171,7 +24171,7 @@
         <v>45421</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24228,7 +24228,7 @@
         <v>45266.55052083333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>45716</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>45736</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>45237</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>45841</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
         <v>45841</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>45006.67759259259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45842</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45013.61559027778</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>45842</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45910</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>45910</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>45639.50815972222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24969,7 +24969,7 @@
         <v>45639.51513888889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         <v>45910.75832175926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25083,7 +25083,7 @@
         <v>44319</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25140,7 +25140,7 @@
         <v>45567</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45845</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45845.57018518518</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25311,7 +25311,7 @@
         <v>45832</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         <v>45471.6508912037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25425,7 +25425,7 @@
         <v>45912.63494212963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45845.71586805556</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45912</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>45912</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>45358</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45912.63859953704</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>45847</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>45847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45673</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>45847.61231481482</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45847</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45847.43850694445</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>45847</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45808</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45189.4577662037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>44509</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>44993</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>45913.63548611111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>44973</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>45915.38431712963</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>45841</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>45915.38284722222</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>45603</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>45616</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>45915.49105324074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>45855.40596064815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>45631.46025462963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>44322</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>45918.28855324074</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27083,7 +27083,7 @@
         <v>45707</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27140,7 +27140,7 @@
         <v>45267.67167824074</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>45672</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27254,7 +27254,7 @@
         <v>45866</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27311,7 +27311,7 @@
         <v>45631.44657407407</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27368,7 +27368,7 @@
         <v>45922</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>45922</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45922</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>45922</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>45922</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>45164.43252314815</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>44499</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>45595</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45596</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45924.61424768518</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45699</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45924.79767361111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45925</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45874</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45929.72997685185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45929.74762731481</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45874</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45874</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45874</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>45189.46061342592</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>45874</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28627,7 +28627,7 @@
         <v>45931</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28684,7 +28684,7 @@
         <v>45871.59560185186</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>45113.64834490741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28798,7 +28798,7 @@
         <v>45931.94607638889</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28860,7 +28860,7 @@
         <v>45113.65050925926</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         <v>45743</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28974,7 +28974,7 @@
         <v>45931.68141203704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>45874</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>45932.72905092593</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>45932.5705787037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45692.40827546296</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45692.41335648148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45537</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45746</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45932.45870370371</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44564</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45310.58418981481</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45769.44701388889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29663,7 +29663,7 @@
         <v>45709.55030092593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29720,7 +29720,7 @@
         <v>45709</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29777,7 +29777,7 @@
         <v>45012</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29834,7 +29834,7 @@
         <v>45880</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>44550</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29948,7 +29948,7 @@
         <v>45497</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30005,7 +30005,7 @@
         <v>45021.66313657408</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45880</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45685</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30176,7 +30176,7 @@
         <v>45932.52427083333</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>45932.56517361111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30352,7 +30352,7 @@
         <v>45881.88849537037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45881.61653935185</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         <v>45677.70292824074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30523,7 +30523,7 @@
         <v>45881</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>45931</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30637,7 +30637,7 @@
         <v>45775</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>44392</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
         <v>44606</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44830</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30865,7 +30865,7 @@
         <v>45171.36037037037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44389.5525</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         <v>45932.94513888889</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44879</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44880</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44490.6284837963</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>45711.44690972222</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>45933.34677083333</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>45676</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>45883.66013888889</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>45936.46237268519</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>45740</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>45938</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>45747.30980324074</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31683,7 +31683,7 @@
         <v>45735</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31740,7 +31740,7 @@
         <v>45937</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         <v>45937</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31854,7 +31854,7 @@
         <v>45937.66600694445</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>44538</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31968,7 +31968,7 @@
         <v>45586.43513888889</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32025,7 +32025,7 @@
         <v>45253</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32082,7 +32082,7 @@
         <v>45525.82263888889</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32139,7 +32139,7 @@
         <v>45720</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32196,7 +32196,7 @@
         <v>44629.61861111111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45191</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32310,7 +32310,7 @@
         <v>45082</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32367,7 +32367,7 @@
         <v>45771</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32424,7 +32424,7 @@
         <v>45611</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32481,7 +32481,7 @@
         <v>45249.71587962963</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32538,7 +32538,7 @@
         <v>45721</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44812.56072916667</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32652,7 +32652,7 @@
         <v>44910.37921296297</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32714,7 +32714,7 @@
         <v>45944.58974537037</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32771,7 +32771,7 @@
         <v>45943</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>45769</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>44450</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>45775</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>45944.58201388889</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>45723.43067129629</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>45775</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>45775.4625</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         <v>45944.56200231481</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>45944.56563657407</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         <v>45944.62978009259</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>45226</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>45945</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>45946.44969907407</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>45763</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44813</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44936.57364583333</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>45229.59701388889</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44881.5821412037</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>45949.81171296296</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>45950.4672337963</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>45771</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44880</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>45609</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34149,7 +34149,7 @@
         <v>45078</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>45747</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34263,7 +34263,7 @@
         <v>45089.91476851852</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34320,7 +34320,7 @@
         <v>45951.4497337963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34377,7 +34377,7 @@
         <v>44487</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34434,7 +34434,7 @@
         <v>45740.56710648148</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34496,7 +34496,7 @@
         <v>45278</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34558,7 +34558,7 @@
         <v>45548</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34615,7 +34615,7 @@
         <v>45356</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>45880</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>45542</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>45099.48193287037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>45735</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44758.50113425926</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>45303</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>45368</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35076,7 +35076,7 @@
         <v>45063</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35133,7 +35133,7 @@
         <v>44509</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35195,7 +35195,7 @@
         <v>45356</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35252,7 +35252,7 @@
         <v>45331.32953703704</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35309,7 +35309,7 @@
         <v>45273.33925925926</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35366,7 +35366,7 @@
         <v>45959</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35423,7 +35423,7 @@
         <v>45398</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35480,7 +35480,7 @@
         <v>44463.44508101852</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35537,7 +35537,7 @@
         <v>44448</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35594,7 +35594,7 @@
         <v>45191</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35651,7 +35651,7 @@
         <v>45961</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
         <v>45961.43993055556</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35765,7 +35765,7 @@
         <v>45961.44732638889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35822,7 +35822,7 @@
         <v>45961.44432870371</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35879,7 +35879,7 @@
         <v>44976</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35936,7 +35936,7 @@
         <v>45961</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35993,7 +35993,7 @@
         <v>45961.43761574074</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>45387.48815972222</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36107,7 +36107,7 @@
         <v>45374</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36164,7 +36164,7 @@
         <v>45374</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         <v>45966</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36283,7 +36283,7 @@
         <v>45966.6183912037</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>45966</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45425</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
         <v>45092.34506944445</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36511,7 +36511,7 @@
         <v>45266</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>44994</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>45971</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45603.70509259259</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>45204</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>45203</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
         <v>45558.45792824074</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>45471</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36967,7 +36967,7 @@
         <v>45348</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37024,7 +37024,7 @@
         <v>45355</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37081,7 +37081,7 @@
         <v>45607</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37138,7 +37138,7 @@
         <v>45314</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37195,7 +37195,7 @@
         <v>44509.46195601852</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>44509.60841435185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45527</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37366,7 +37366,7 @@
         <v>45728</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37423,7 +37423,7 @@
         <v>45282</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37480,7 +37480,7 @@
         <v>45977</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37537,7 +37537,7 @@
         <v>45975.34126157407</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37594,7 +37594,7 @@
         <v>45582.63302083333</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37651,7 +37651,7 @@
         <v>45975</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
         <v>45044</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37765,7 +37765,7 @@
         <v>45975</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37822,7 +37822,7 @@
         <v>45975</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37879,7 +37879,7 @@
         <v>45723.466875</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37936,7 +37936,7 @@
         <v>45980.35592592593</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37993,7 +37993,7 @@
         <v>45393.67927083333</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38050,7 +38050,7 @@
         <v>45719</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         <v>45191.59171296296</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38164,7 +38164,7 @@
         <v>45727</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38221,7 +38221,7 @@
         <v>45982.56765046297</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38278,7 +38278,7 @@
         <v>45982.59368055555</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>45358</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>45460</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38449,7 +38449,7 @@
         <v>45146.50280092593</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38506,7 +38506,7 @@
         <v>45527.34229166667</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38568,7 +38568,7 @@
         <v>45534.44462962963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38630,7 +38630,7 @@
         <v>45758.55665509259</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38687,7 +38687,7 @@
         <v>45983</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>45334</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38801,7 +38801,7 @@
         <v>45719</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38858,7 +38858,7 @@
         <v>45988.55174768518</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38915,7 +38915,7 @@
         <v>45988</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38972,7 +38972,7 @@
         <v>45707.38164351852</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39029,7 +39029,7 @@
         <v>45988</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39086,7 +39086,7 @@
         <v>45667</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39143,7 +39143,7 @@
         <v>45089.90354166667</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39200,7 +39200,7 @@
         <v>45988.59798611111</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39257,7 +39257,7 @@
         <v>45987.59451388889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39314,7 +39314,7 @@
         <v>45988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
         <v>45162</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         <v>45988.59108796297</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39485,7 +39485,7 @@
         <v>45988.59486111111</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39542,7 +39542,7 @@
         <v>44603.36936342593</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39599,7 +39599,7 @@
         <v>44550</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39656,7 +39656,7 @@
         <v>45771</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39713,7 +39713,7 @@
         <v>45989</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39770,7 +39770,7 @@
         <v>45992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39827,7 +39827,7 @@
         <v>45989</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39884,7 +39884,7 @@
         <v>45989</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39941,7 +39941,7 @@
         <v>45506</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>45439.91932870371</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>45639.5108912037</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>45989</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40174,7 +40174,7 @@
         <v>45993.60181712963</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>45575</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>45986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>45993.44180555556</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>45625</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>45506.50138888889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>44581.48815972222</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40578,7 +40578,7 @@
         <v>45995.48490740741</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40635,7 +40635,7 @@
         <v>44607</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40692,7 +40692,7 @@
         <v>45146</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>45711.45023148148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>45995.63555555556</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>45996</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44587</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40977,7 +40977,7 @@
         <v>44606</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>46041.48625</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>46041.55094907407</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41148,7 +41148,7 @@
         <v>45999.55011574074</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41205,7 +41205,7 @@
         <v>46041.48872685185</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>45744</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>45621.39435185185</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>45313.45986111111</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>45107</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45617</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>46043</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41604,7 +41604,7 @@
         <v>44635.57199074074</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41661,7 +41661,7 @@
         <v>45733.59439814815</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41718,7 +41718,7 @@
         <v>45609</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41775,7 +41775,7 @@
         <v>45098</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41832,7 +41832,7 @@
         <v>45665</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41889,7 +41889,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41946,7 +41946,7 @@
         <v>45988</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>45988</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>46045.60420138889</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42117,7 +42117,7 @@
         <v>45706</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42174,7 +42174,7 @@
         <v>46006.31755787037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>44663</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42288,7 +42288,7 @@
         <v>46048.50357638889</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42345,7 +42345,7 @@
         <v>46045.60822916667</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42402,7 +42402,7 @@
         <v>46006</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42459,7 +42459,7 @@
         <v>45988</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42516,7 +42516,7 @@
         <v>45988</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42573,7 +42573,7 @@
         <v>45704.63635416667</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42630,7 +42630,7 @@
         <v>45704</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42687,7 +42687,7 @@
         <v>46006.31548611111</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42744,7 +42744,7 @@
         <v>45147.80305555555</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42801,7 +42801,7 @@
         <v>46008.41583333333</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42858,7 +42858,7 @@
         <v>45728</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42915,7 +42915,7 @@
         <v>46008.41267361111</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42972,7 +42972,7 @@
         <v>45583</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43029,7 +43029,7 @@
         <v>46046</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43086,7 +43086,7 @@
         <v>46046</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43143,7 +43143,7 @@
         <v>45222.48622685186</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43200,7 +43200,7 @@
         <v>44763.62467592592</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43262,7 +43262,7 @@
         <v>45237</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43319,7 +43319,7 @@
         <v>45769</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43381,7 +43381,7 @@
         <v>45171.35449074074</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45211.58881944444</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>46009</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>46009</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43609,7 +43609,7 @@
         <v>45659</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43666,7 +43666,7 @@
         <v>45212.56989583333</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         <v>46010</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43780,7 +43780,7 @@
         <v>45679</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43837,7 +43837,7 @@
         <v>44823.3628587963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43894,7 +43894,7 @@
         <v>45681</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -43951,7 +43951,7 @@
         <v>46055.64796296296</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44008,7 +44008,7 @@
         <v>45191.49715277777</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44065,7 +44065,7 @@
         <v>46055.5643287037</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44122,7 +44122,7 @@
         <v>46055.6519675926</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44179,7 +44179,7 @@
         <v>45699</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44241,7 +44241,7 @@
         <v>45729</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44303,7 +44303,7 @@
         <v>45223</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44360,7 +44360,7 @@
         <v>45517.40324074074</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44417,7 +44417,7 @@
         <v>46016</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44474,7 +44474,7 @@
         <v>46058.49802083334</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44531,7 +44531,7 @@
         <v>45303.81282407408</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44588,7 +44588,7 @@
         <v>45278</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44650,7 +44650,7 @@
         <v>45278.42649305556</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44712,7 +44712,7 @@
         <v>45295.4290625</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44769,7 +44769,7 @@
         <v>45617</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -44826,7 +44826,7 @@
         <v>46059.34946759259</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -44883,7 +44883,7 @@
         <v>45278.43013888889</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -44945,7 +44945,7 @@
         <v>45180.47318287037</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45002,7 +45002,7 @@
         <v>45733</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45059,7 +45059,7 @@
         <v>45728.48168981481</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45116,7 +45116,7 @@
         <v>45278</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45173,7 +45173,7 @@
         <v>46059.59567129629</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45230,7 +45230,7 @@
         <v>45378</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45287,7 +45287,7 @@
         <v>44853.38101851852</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45344,7 +45344,7 @@
         <v>45352</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45401,7 +45401,7 @@
         <v>46062</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45458,7 +45458,7 @@
         <v>45832</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45515,7 +45515,7 @@
         <v>45330</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45572,7 +45572,7 @@
         <v>44988.77804398148</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45629,7 +45629,7 @@
         <v>45258.29427083334</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45686,7 +45686,7 @@
         <v>46065.36774305555</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -45743,7 +45743,7 @@
         <v>44938.66984953704</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -45800,7 +45800,7 @@
         <v>45264</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -45857,7 +45857,7 @@
         <v>44852.82453703704</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -45914,7 +45914,7 @@
         <v>45733.61358796297</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -45971,7 +45971,7 @@
         <v>45098.48512731482</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -46028,7 +46028,7 @@
         <v>45239</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -46085,7 +46085,7 @@
         <v>45239</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -46142,7 +46142,7 @@
         <v>44868</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -46199,7 +46199,7 @@
         <v>45281</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -46256,7 +46256,7 @@
         <v>46030.5664699074</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -46313,7 +46313,7 @@
         <v>45736</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -46370,7 +46370,7 @@
         <v>45728.48884259259</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -46427,7 +46427,7 @@
         <v>44623</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -46484,7 +46484,7 @@
         <v>46072.42784722222</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -46541,7 +46541,7 @@
         <v>46030.54390046297</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -46598,7 +46598,7 @@
         <v>46030.55771990741</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -46655,7 +46655,7 @@
         <v>45700</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -46712,7 +46712,7 @@
         <v>44419.53694444444</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -46769,7 +46769,7 @@
         <v>45527</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -46826,7 +46826,7 @@
         <v>46072.7534375</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>45301</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -46940,7 +46940,7 @@
         <v>44924.74262731482</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -46997,7 +46997,7 @@
         <v>46034.57228009259</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -47054,7 +47054,7 @@
         <v>44439</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -47111,7 +47111,7 @@
         <v>45728</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -47168,7 +47168,7 @@
         <v>45211.60106481481</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -47225,7 +47225,7 @@
         <v>45725</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -47282,7 +47282,7 @@
         <v>45740</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -47344,7 +47344,7 @@
         <v>45740</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -47406,7 +47406,7 @@
         <v>45621</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -47463,7 +47463,7 @@
         <v>45581</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -47520,7 +47520,7 @@
         <v>46073</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -47577,7 +47577,7 @@
         <v>45597</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -47634,7 +47634,7 @@
         <v>45768</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -47691,7 +47691,7 @@
         <v>44900</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -47748,7 +47748,7 @@
         <v>44419</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -47805,7 +47805,7 @@
         <v>44960.33927083333</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -47862,7 +47862,7 @@
         <v>45608</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -47919,7 +47919,7 @@
         <v>45391</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -47976,7 +47976,7 @@
         <v>46036.56621527778</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -48033,7 +48033,7 @@
         <v>45450</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -48095,7 +48095,7 @@
         <v>45040</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -48152,7 +48152,7 @@
         <v>46045</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -48209,7 +48209,7 @@
         <v>46078.59631944444</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -48266,7 +48266,7 @@
         <v>44824.65680555555</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -48323,7 +48323,7 @@
         <v>45572.53379629629</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -48380,7 +48380,7 @@
         <v>44745.57325231482</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -48437,7 +48437,7 @@
         <v>46045</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -48494,7 +48494,7 @@
         <v>45271.42207175926</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -48551,7 +48551,7 @@
         <v>44763.60128472222</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -48613,7 +48613,7 @@
         <v>45419</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -48670,7 +48670,7 @@
         <v>44552.4565162037</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -48727,7 +48727,7 @@
         <v>46079.61128472222</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -48784,7 +48784,7 @@
         <v>46079.61996527778</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -48841,7 +48841,7 @@
         <v>46037</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -48903,7 +48903,7 @@
         <v>45063</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -48960,7 +48960,7 @@
         <v>46037.53836805555</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -49017,7 +49017,7 @@
         <v>45387</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -49079,7 +49079,7 @@
         <v>46079.62108796297</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -49136,7 +49136,7 @@
         <v>44846</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -49193,7 +49193,7 @@
         <v>45403</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -49250,7 +49250,7 @@
         <v>44671</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -49307,7 +49307,7 @@
         <v>45251</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -49364,7 +49364,7 @@
         <v>44501</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -49421,7 +49421,7 @@
         <v>44909.5743287037</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -49478,7 +49478,7 @@
         <v>45727</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -49535,7 +49535,7 @@
         <v>44671</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -49592,7 +49592,7 @@
         <v>46038.58667824074</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -49649,7 +49649,7 @@
         <v>44895</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -49711,7 +49711,7 @@
         <v>45516</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -49768,7 +49768,7 @@
         <v>45516</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -49825,7 +49825,7 @@
         <v>44777.69274305556</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -49882,7 +49882,7 @@
         <v>45425</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -49939,7 +49939,7 @@
         <v>45012</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -49996,7 +49996,7 @@
         <v>45341</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -50053,7 +50053,7 @@
         <v>45546</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -50110,7 +50110,7 @@
         <v>44488</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -50167,7 +50167,7 @@
         <v>45012.5621875</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -50224,7 +50224,7 @@
         <v>45527.32226851852</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -50286,7 +50286,7 @@
         <v>45597</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -50343,7 +50343,7 @@
         <v>44468.44650462963</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -50400,7 +50400,7 @@
         <v>45425.41623842593</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45572</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -50514,7 +50514,7 @@
         <v>44608</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>45040</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>44952</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>45237.68157407407</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>45555</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -50799,7 +50799,7 @@
         <v>45631</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -50856,7 +50856,7 @@
         <v>45542</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -50913,7 +50913,7 @@
         <v>45106.60681712963</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -50970,7 +50970,7 @@
         <v>45433.62677083333</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -51027,7 +51027,7 @@
         <v>44378</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -51084,7 +51084,7 @@
         <v>45471</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -51141,7 +51141,7 @@
         <v>45372</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -51203,7 +51203,7 @@
         <v>44858</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -51260,7 +51260,7 @@
         <v>45245</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -51322,7 +51322,7 @@
         <v>45394</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -51379,7 +51379,7 @@
         <v>44296</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -51436,7 +51436,7 @@
         <v>45253.47288194444</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -51493,7 +51493,7 @@
         <v>45156.36695601852</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -51550,7 +51550,7 @@
         <v>45107</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -51607,7 +51607,7 @@
         <v>44998.46248842592</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -51664,7 +51664,7 @@
         <v>44823</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -51721,7 +51721,7 @@
         <v>45457</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -51778,7 +51778,7 @@
         <v>44929.47711805555</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -51835,7 +51835,7 @@
         <v>45523</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -51892,7 +51892,7 @@
         <v>45358</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -51949,7 +51949,7 @@
         <v>45062.46313657407</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -52006,7 +52006,7 @@
         <v>44523.46517361111</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -52063,7 +52063,7 @@
         <v>45522</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -52120,7 +52120,7 @@
         <v>45495.46560185185</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -52177,7 +52177,7 @@
         <v>44885</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -52234,7 +52234,7 @@
         <v>45630</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         <v>45149.34829861111</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -52348,7 +52348,7 @@
         <v>44487</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -52405,7 +52405,7 @@
         <v>45707.45273148148</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -52462,7 +52462,7 @@
         <v>45127</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -52519,7 +52519,7 @@
         <v>45642</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -52576,7 +52576,7 @@
         <v>45667</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -52638,7 +52638,7 @@
         <v>44916.65094907407</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -52695,7 +52695,7 @@
         <v>45266</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -52752,7 +52752,7 @@
         <v>44546</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -52809,7 +52809,7 @@
         <v>45147.67074074074</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         <v>44609.47098379629</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -52923,7 +52923,7 @@
         <v>45411</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -52980,7 +52980,7 @@
         <v>45630.74324074074</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -53042,7 +53042,7 @@
         <v>45365</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -53099,7 +53099,7 @@
         <v>45299</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -53156,7 +53156,7 @@
         <v>45324.4834837963</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -53213,7 +53213,7 @@
         <v>45055</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -53275,7 +53275,7 @@
         <v>45356</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -53332,7 +53332,7 @@
         <v>45719</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -53389,7 +53389,7 @@
         <v>44709.56806712963</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -53446,7 +53446,7 @@
         <v>45005.39711805555</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -53508,7 +53508,7 @@
         <v>45280.40775462963</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -53565,7 +53565,7 @@
         <v>45279</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -53622,7 +53622,7 @@
         <v>44896</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -53679,7 +53679,7 @@
         <v>45474</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -53736,7 +53736,7 @@
         <v>44921</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -53793,7 +53793,7 @@
         <v>45361.64986111111</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -53850,7 +53850,7 @@
         <v>45477</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -53907,7 +53907,7 @@
         <v>44959</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -53964,7 +53964,7 @@
         <v>44945</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -54021,7 +54021,7 @@
         <v>45156</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -54078,7 +54078,7 @@
         <v>45635</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -54135,7 +54135,7 @@
         <v>45617</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -54192,7 +54192,7 @@
         <v>45133.75327546296</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -54249,7 +54249,7 @@
         <v>45278</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         <v>45714</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -54363,7 +54363,7 @@
         <v>45714</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -54420,7 +54420,7 @@
         <v>45383</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         <v>45176</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -54534,7 +54534,7 @@
         <v>44881</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -54591,7 +54591,7 @@
         <v>44886</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -54648,7 +54648,7 @@
         <v>45173</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -54705,7 +54705,7 @@
         <v>45677</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -54762,7 +54762,7 @@
         <v>45337</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -54819,7 +54819,7 @@
         <v>45722.75255787037</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -54876,7 +54876,7 @@
         <v>45107</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -54933,7 +54933,7 @@
         <v>45667</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -54990,7 +54990,7 @@
         <v>45712</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -55047,7 +55047,7 @@
         <v>44734</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -55104,7 +55104,7 @@
         <v>45644</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -55161,7 +55161,7 @@
         <v>45747.31423611111</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -55223,7 +55223,7 @@
         <v>45441</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -55280,7 +55280,7 @@
         <v>45707</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -55337,7 +55337,7 @@
         <v>45603.61142361111</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -55394,7 +55394,7 @@
         <v>45685</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -55451,7 +55451,7 @@
         <v>45430</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -55508,7 +55508,7 @@
         <v>45576</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -55565,7 +55565,7 @@
         <v>45639</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -55622,7 +55622,7 @@
         <v>45639.60733796296</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -55679,7 +55679,7 @@
         <v>45380</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -55736,7 +55736,7 @@
         <v>45779.62796296296</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -55793,7 +55793,7 @@
         <v>45782</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -55850,7 +55850,7 @@
         <v>45782</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -55907,7 +55907,7 @@
         <v>45646</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -55964,7 +55964,7 @@
         <v>45784</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -56021,7 +56021,7 @@
         <v>45369.4175</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -56078,7 +56078,7 @@
         <v>45784</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -56135,7 +56135,7 @@
         <v>45783.60231481482</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -56192,7 +56192,7 @@
         <v>45785</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -56249,7 +56249,7 @@
         <v>45736</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         <v>45681</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -56363,7 +56363,7 @@
         <v>45427</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -56420,7 +56420,7 @@
         <v>45555</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -56477,7 +56477,7 @@
         <v>45789</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         <v>45790</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -56601,7 +56601,7 @@
         <v>45790</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -56658,7 +56658,7 @@
         <v>45790</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -56720,7 +56720,7 @@
         <v>45790</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -56782,7 +56782,7 @@
         <v>45790</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -56844,7 +56844,7 @@
         <v>45720</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -56906,7 +56906,7 @@
         <v>44881</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -56963,7 +56963,7 @@
         <v>45789.56633101852</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -57020,7 +57020,7 @@
         <v>45789</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -57082,7 +57082,7 @@
         <v>45790</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -57144,7 +57144,7 @@
         <v>45790</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -57206,7 +57206,7 @@
         <v>45789</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -57268,7 +57268,7 @@
         <v>45790</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -57330,7 +57330,7 @@
         <v>45790</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -57392,7 +57392,7 @@
         <v>45791.3975</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -57449,7 +57449,7 @@
         <v>45791.71166666667</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -57511,7 +57511,7 @@
         <v>45791</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -57568,7 +57568,7 @@
         <v>45791.67365740741</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -57630,7 +57630,7 @@
         <v>45793</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -57687,7 +57687,7 @@
         <v>45707</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -57744,7 +57744,7 @@
         <v>45796</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -57801,7 +57801,7 @@
         <v>45323</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -57858,7 +57858,7 @@
         <v>45644</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -57915,7 +57915,7 @@
         <v>45796</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -57972,7 +57972,7 @@
         <v>45798.47082175926</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -58034,7 +58034,7 @@
         <v>45798.47412037037</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -58096,7 +58096,7 @@
         <v>45798.38451388889</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -58158,7 +58158,7 @@
         <v>45638</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -58215,7 +58215,7 @@
         <v>45239</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -58272,7 +58272,7 @@
         <v>45799</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -58329,7 +58329,7 @@
         <v>45800</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
